--- a/practice_japanese.xlsx
+++ b/practice_japanese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandithamurthy/Documents/GitHub/Japanese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963E76D-6AD0-704D-9A0F-C5C43B989C7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4F49F-23D3-FA48-A5AC-28F6981138F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="700" windowWidth="27900" windowHeight="17440" activeTab="4" xr2:uid="{71650012-5DDA-BC4D-9A96-173AD0824C78}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7960" uniqueCount="5193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8456" uniqueCount="5395">
   <si>
     <t>dictionary form</t>
   </si>
@@ -16251,6 +16251,613 @@
   </si>
   <si>
     <t>おさきに</t>
+  </si>
+  <si>
+    <t>ぶどう</t>
+  </si>
+  <si>
+    <t>above/on/up/superior</t>
+  </si>
+  <si>
+    <t>under/down inferior</t>
+  </si>
+  <si>
+    <t>above/on</t>
+  </si>
+  <si>
+    <t>to go up</t>
+  </si>
+  <si>
+    <t>to go up/to rise</t>
+  </si>
+  <si>
+    <t>an overcoat</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>to go down</t>
+  </si>
+  <si>
+    <t>to come down</t>
+  </si>
+  <si>
+    <t>a subway</t>
+  </si>
+  <si>
+    <t>up and down</t>
+  </si>
+  <si>
+    <t>turning left</t>
+  </si>
+  <si>
+    <t>left hand</t>
+  </si>
+  <si>
+    <t>left side</t>
+  </si>
+  <si>
+    <t>right hand</t>
+  </si>
+  <si>
+    <t>right side</t>
+  </si>
+  <si>
+    <t>turning right</t>
+  </si>
+  <si>
+    <t>right and left</t>
+  </si>
+  <si>
+    <t>middle/ inside</t>
+  </si>
+  <si>
+    <t>being on the phone</t>
+  </si>
+  <si>
+    <t>all day long</t>
+  </si>
+  <si>
+    <t>all over india</t>
+  </si>
+  <si>
+    <t>to be off</t>
+  </si>
+  <si>
+    <t>a foreigner</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>out/outer other</t>
+  </si>
+  <si>
+    <t>east exit</t>
+  </si>
+  <si>
+    <t>west exit</t>
+  </si>
+  <si>
+    <t>Western countries</t>
+  </si>
+  <si>
+    <t>Kansai region</t>
+  </si>
+  <si>
+    <t>south exit</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>north exit</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>north, south, east and west</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>big/large great</t>
+  </si>
+  <si>
+    <t>small/little</t>
+  </si>
+  <si>
+    <t>many/much</t>
+  </si>
+  <si>
+    <t>a large number</t>
+  </si>
+  <si>
+    <t>few/little</t>
+  </si>
+  <si>
+    <t>little/few</t>
+  </si>
+  <si>
+    <t>new car</t>
+  </si>
+  <si>
+    <t>second-hand car</t>
+  </si>
+  <si>
+    <t>high/expensive</t>
+  </si>
+  <si>
+    <t>high school</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>peace of mind</t>
+  </si>
+  <si>
+    <t>high expensive</t>
+  </si>
+  <si>
+    <t>safe/cheap</t>
+  </si>
+  <si>
+    <t>eldest son</t>
+  </si>
+  <si>
+    <t>(company) president</t>
+  </si>
+  <si>
+    <t>chief of department</t>
+  </si>
+  <si>
+    <t>long/eldest / chief</t>
+  </si>
+  <si>
+    <t>white color</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>Milky way</t>
+  </si>
+  <si>
+    <t>Tempura</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>empty bottle</t>
+  </si>
+  <si>
+    <t>to become vacant</t>
+  </si>
+  <si>
+    <t>raint weather</t>
+  </si>
+  <si>
+    <t>sky/heaven</t>
+  </si>
+  <si>
+    <t>spririt/mind/
+air/atmosphere</t>
+  </si>
+  <si>
+    <t>sky/air/empty</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>vase</t>
+  </si>
+  <si>
+    <t>scallop</t>
+  </si>
+  <si>
+    <t>fish market</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>carriage</t>
+  </si>
+  <si>
+    <t>horse riding</t>
+  </si>
+  <si>
+    <t>time/when</t>
+  </si>
+  <si>
+    <t>3 o'clock</t>
+  </si>
+  <si>
+    <t>time/hour</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>to be in time</t>
+  </si>
+  <si>
+    <t>one year</t>
+  </si>
+  <si>
+    <t>between/interval</t>
+  </si>
+  <si>
+    <t>division part/minute</t>
+  </si>
+  <si>
+    <t>to divide</t>
+  </si>
+  <si>
+    <t>to understand</t>
+  </si>
+  <si>
+    <t>three minute</t>
+  </si>
+  <si>
+    <t>five minutes</t>
+  </si>
+  <si>
+    <t>halfway/middle</t>
+  </si>
+  <si>
+    <t>half a year</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>before/front/previous</t>
+  </si>
+  <si>
+    <t>before/front</t>
+  </si>
+  <si>
+    <t>a name</t>
+  </si>
+  <si>
+    <t>the first half</t>
+  </si>
+  <si>
+    <t>after/later</t>
+  </si>
+  <si>
+    <t>behind/back</t>
+  </si>
+  <si>
+    <t>the last half</t>
+  </si>
+  <si>
+    <t>3 days later</t>
+  </si>
+  <si>
+    <t>after/later/behind</t>
+  </si>
+  <si>
+    <t>a.m/morning</t>
+  </si>
+  <si>
+    <t>p.m/afternoon</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>last week</t>
+  </si>
+  <si>
+    <t>one week</t>
+  </si>
+  <si>
+    <t>a year/ an age</t>
+  </si>
+  <si>
+    <t>year/age</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>every week</t>
+  </si>
+  <si>
+    <t>every month</t>
+  </si>
+  <si>
+    <t>every year</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>meeting/association</t>
+  </si>
+  <si>
+    <t>shrine/company/assembling</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>to meet</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>a student</t>
+  </si>
+  <si>
+    <t>high school student</t>
+  </si>
+  <si>
+    <t>riit/origin/true/main</t>
+  </si>
+  <si>
+    <t>Yamamoto</t>
+  </si>
+  <si>
+    <t>one(long object)</t>
+  </si>
+  <si>
+    <t>shop clerk</t>
+  </si>
+  <si>
+    <t>Kinkakuji temple</t>
+  </si>
+  <si>
+    <t>a way/ a street</t>
+  </si>
+  <si>
+    <t>way/street</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>station employee</t>
+  </si>
+  <si>
+    <t>electricity/an electric light</t>
+  </si>
+  <si>
+    <t>go/conduct/line</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>to carry out</t>
+  </si>
+  <si>
+    <t>a trip</t>
+  </si>
+  <si>
+    <t>4 lines</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>not to come</t>
+  </si>
+  <si>
+    <t>to go/come back</t>
+  </si>
+  <si>
+    <t>to return to own country</t>
+  </si>
+  <si>
+    <t>come/next</t>
+  </si>
+  <si>
+    <t>return/go back</t>
+  </si>
+  <si>
+    <t>to live</t>
+  </si>
+  <si>
+    <t>to be born</t>
+  </si>
+  <si>
+    <t>live/birth</t>
+  </si>
+  <si>
+    <t>to rest/ to be absent</t>
+  </si>
+  <si>
+    <t>a break/ a holiday</t>
+  </si>
+  <si>
+    <t>an absence</t>
+  </si>
+  <si>
+    <t>a holiday</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>to enter</t>
+  </si>
+  <si>
+    <t>to put into</t>
+  </si>
+  <si>
+    <t>an entrance</t>
+  </si>
+  <si>
+    <t>to enroll in a school</t>
+  </si>
+  <si>
+    <t>new recruite</t>
+  </si>
+  <si>
+    <t>put in</t>
+  </si>
+  <si>
+    <t>to come out/ to leave</t>
+  </si>
+  <si>
+    <t>to attend</t>
+  </si>
+  <si>
+    <t>to go out</t>
+  </si>
+  <si>
+    <t>to put out/ to send/ to submit</t>
+  </si>
+  <si>
+    <t>an exit</t>
+  </si>
+  <si>
+    <t>to stand</t>
+  </si>
+  <si>
+    <t>a standpoint</t>
+  </si>
+  <si>
+    <t>national university</t>
+  </si>
+  <si>
+    <t>stand establish</t>
+  </si>
+  <si>
+    <t>to look at / to see</t>
+  </si>
+  <si>
+    <t>to show</t>
+  </si>
+  <si>
+    <t>to be visible</t>
+  </si>
+  <si>
+    <t>an opnion</t>
+  </si>
+  <si>
+    <t>to do sightseeing</t>
+  </si>
+  <si>
+    <t>to hear/ to listen</t>
+  </si>
+  <si>
+    <t>to be audible</t>
+  </si>
+  <si>
+    <t>a newsppaper</t>
+  </si>
+  <si>
+    <t>splendid/ fine</t>
+  </si>
+  <si>
+    <t>come/ go out</t>
+  </si>
+  <si>
+    <t>see/ look view</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>write/ book / document</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>a library</t>
+  </si>
+  <si>
+    <t>a dictionary</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>word language</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>to say</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>story/ talk</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>reading books</t>
+  </si>
+  <si>
+    <t>to talk</t>
+  </si>
+  <si>
+    <t>Japanese language</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>dining room</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>drinking alcohol</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>buying and selling</t>
   </si>
 </sst>
 </file>
@@ -16341,7 +16948,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -17187,11 +17794,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -17401,82 +18050,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -17484,43 +18064,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -17557,12 +18101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -17580,13 +18118,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17951,7 +18653,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="62"/>
     </row>
-    <row r="2" spans="1:19" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="42" t="s">
         <v>2611</v>
@@ -17977,7 +18679,7 @@
       <c r="R2" s="62"/>
       <c r="S2" s="62"/>
     </row>
-    <row r="3" spans="1:19" s="117" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:19" s="157" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>1</v>
@@ -30977,7 +31679,7 @@
       <c r="A399" s="87">
         <v>388</v>
       </c>
-      <c r="B399" s="137" t="s">
+      <c r="B399" s="122" t="s">
         <v>4797</v>
       </c>
       <c r="C399" s="101" t="s">
@@ -31162,16 +31864,16 @@
       <c r="AL414" s="80"/>
       <c r="AM414" s="80"/>
     </row>
-    <row r="415" spans="1:52" s="118" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:52" s="118" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="1:52" s="158" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:52" s="158" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="417" spans="1:49" s="98" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="119" t="s">
+      <c r="A417" s="159" t="s">
         <v>3374</v>
       </c>
-      <c r="B417" s="120"/>
-      <c r="C417" s="120"/>
-      <c r="D417" s="120"/>
-      <c r="E417" s="121"/>
+      <c r="B417" s="160"/>
+      <c r="C417" s="160"/>
+      <c r="D417" s="160"/>
+      <c r="E417" s="161"/>
       <c r="F417" s="80"/>
       <c r="G417" s="80"/>
       <c r="H417" s="80"/>
@@ -35452,7 +36154,7 @@
   <dimension ref="A2:BB135"/>
   <sheetViews>
     <sheetView topLeftCell="R61" workbookViewId="0">
-      <selection activeCell="U89" sqref="U89:W89"/>
+      <selection activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35511,58 +36213,58 @@
   <sheetData>
     <row r="2" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="J3" s="122" t="s">
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
+      <c r="J3" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="Z3" s="125" t="s">
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="167"/>
+      <c r="Z3" s="162" t="s">
         <v>4768</v>
       </c>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="127"/>
-      <c r="AE3" s="122" t="s">
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="164"/>
+      <c r="AE3" s="165" t="s">
         <v>4771</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="124"/>
-      <c r="AJ3" s="122" t="s">
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="167"/>
+      <c r="AJ3" s="165" t="s">
         <v>4774</v>
       </c>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="124"/>
-      <c r="AO3" s="125" t="s">
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="167"/>
+      <c r="AO3" s="162" t="s">
         <v>4776</v>
       </c>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="127"/>
-      <c r="AT3" s="125" t="s">
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="164"/>
+      <c r="AT3" s="162" t="s">
         <v>2340</v>
       </c>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="127"/>
-      <c r="AY3" s="122" t="s">
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="164"/>
+      <c r="AY3" s="165" t="s">
         <v>4783</v>
       </c>
-      <c r="AZ3" s="123"/>
-      <c r="BA3" s="123"/>
-      <c r="BB3" s="124"/>
+      <c r="AZ3" s="166"/>
+      <c r="BA3" s="166"/>
+      <c r="BB3" s="167"/>
     </row>
     <row r="4" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -35601,13 +36303,13 @@
       <c r="M4" s="3" t="s">
         <v>4295</v>
       </c>
-      <c r="O4" s="122" t="s">
+      <c r="O4" s="165" t="s">
         <v>484</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="124"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="167"/>
       <c r="Z4" s="10">
         <v>1</v>
       </c>
@@ -36160,12 +36862,12 @@
         <v>4</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="J9" s="125" t="s">
+      <c r="J9" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="127"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="164"/>
       <c r="O9" s="8">
         <v>5</v>
       </c>
@@ -36569,12 +37271,12 @@
       <c r="AW12" s="6" t="s">
         <v>3399</v>
       </c>
-      <c r="AY12" s="125" t="s">
+      <c r="AY12" s="162" t="s">
         <v>4788</v>
       </c>
-      <c r="AZ12" s="126"/>
-      <c r="BA12" s="126"/>
-      <c r="BB12" s="127"/>
+      <c r="AZ12" s="163"/>
+      <c r="BA12" s="163"/>
+      <c r="BB12" s="164"/>
     </row>
     <row r="13" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -36717,18 +37419,18 @@
       <c r="M14" s="4" t="s">
         <v>4756</v>
       </c>
-      <c r="O14" s="122" t="s">
+      <c r="O14" s="165" t="s">
         <v>449</v>
       </c>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="124"/>
-      <c r="T14" s="125" t="s">
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="167"/>
+      <c r="T14" s="162" t="s">
         <v>2607</v>
       </c>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="127"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="164"/>
       <c r="Z14" s="8">
         <v>11</v>
       </c>
@@ -37803,12 +38505,12 @@
         <v>2416</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="J23" s="122" t="s">
+      <c r="J23" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="124"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="167"/>
       <c r="O23" s="8">
         <v>9</v>
       </c>
@@ -39413,12 +40115,12 @@
         <v>1826</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="J36" s="122" t="s">
+      <c r="J36" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="124"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="167"/>
       <c r="O36" s="8">
         <v>22</v>
       </c>
@@ -40542,13 +41244,13 @@
       <c r="O45" s="10">
         <v>31</v>
       </c>
-      <c r="P45" s="134" t="s">
+      <c r="P45" s="119" t="s">
         <v>4792</v>
       </c>
-      <c r="Q45" s="134" t="s">
+      <c r="Q45" s="119" t="s">
         <v>4794</v>
       </c>
-      <c r="R45" s="135"/>
+      <c r="R45" s="120"/>
       <c r="T45" s="10">
         <v>31</v>
       </c>
@@ -41209,12 +41911,12 @@
         <v>1974</v>
       </c>
       <c r="W51" s="4"/>
-      <c r="Z51" s="122" t="s">
+      <c r="Z51" s="165" t="s">
         <v>4769</v>
       </c>
-      <c r="AA51" s="123"/>
-      <c r="AB51" s="123"/>
-      <c r="AC51" s="124"/>
+      <c r="AA51" s="166"/>
+      <c r="AB51" s="166"/>
+      <c r="AC51" s="167"/>
       <c r="AE51" s="8">
         <v>48</v>
       </c>
@@ -41237,12 +41939,12 @@
         <v>870</v>
       </c>
       <c r="AM51" s="3"/>
-      <c r="AO51" s="125" t="s">
+      <c r="AO51" s="162" t="s">
         <v>4777</v>
       </c>
-      <c r="AP51" s="126"/>
-      <c r="AQ51" s="126"/>
-      <c r="AR51" s="127"/>
+      <c r="AP51" s="163"/>
+      <c r="AQ51" s="163"/>
+      <c r="AR51" s="164"/>
       <c r="AT51" s="8">
         <v>48</v>
       </c>
@@ -41523,12 +42225,12 @@
       <c r="M54" s="6" t="s">
         <v>2478</v>
       </c>
-      <c r="T54" s="122" t="s">
+      <c r="T54" s="165" t="s">
         <v>604</v>
       </c>
-      <c r="U54" s="123"/>
-      <c r="V54" s="123"/>
-      <c r="W54" s="124"/>
+      <c r="U54" s="166"/>
+      <c r="V54" s="166"/>
+      <c r="W54" s="167"/>
       <c r="Z54" s="10">
         <v>3</v>
       </c>
@@ -41621,12 +42323,12 @@
       <c r="M55" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="O55" s="125" t="s">
+      <c r="O55" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="127"/>
+      <c r="P55" s="163"/>
+      <c r="Q55" s="163"/>
+      <c r="R55" s="164"/>
       <c r="T55" s="10">
         <v>1</v>
       </c>
@@ -41751,18 +42453,18 @@
         <v>807</v>
       </c>
       <c r="AC56" s="4"/>
-      <c r="AE56" s="122" t="s">
+      <c r="AE56" s="165" t="s">
         <v>4772</v>
       </c>
-      <c r="AF56" s="123"/>
-      <c r="AG56" s="123"/>
-      <c r="AH56" s="124"/>
-      <c r="AJ56" s="125" t="s">
+      <c r="AF56" s="166"/>
+      <c r="AG56" s="166"/>
+      <c r="AH56" s="167"/>
+      <c r="AJ56" s="162" t="s">
         <v>4775</v>
       </c>
-      <c r="AK56" s="126"/>
-      <c r="AL56" s="126"/>
-      <c r="AM56" s="127"/>
+      <c r="AK56" s="163"/>
+      <c r="AL56" s="163"/>
+      <c r="AM56" s="164"/>
       <c r="AO56" s="25">
         <v>5</v>
       </c>
@@ -42475,12 +43177,12 @@
       <c r="H63" s="4" t="s">
         <v>1729</v>
       </c>
-      <c r="J63" s="125" t="s">
+      <c r="J63" s="162" t="s">
         <v>712</v>
       </c>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-      <c r="M63" s="127"/>
+      <c r="K63" s="163"/>
+      <c r="L63" s="163"/>
+      <c r="M63" s="164"/>
       <c r="O63" s="8">
         <v>8</v>
       </c>
@@ -43235,7 +43937,7 @@
       <c r="AM69" s="4" t="s">
         <v>4148</v>
       </c>
-      <c r="AO69" s="132">
+      <c r="AO69" s="117">
         <v>17</v>
       </c>
       <c r="AP69" s="12" t="s">
@@ -43298,10 +44000,10 @@
       <c r="O70" s="10">
         <v>15</v>
       </c>
-      <c r="P70" s="133" t="s">
+      <c r="P70" s="118" t="s">
         <v>4791</v>
       </c>
-      <c r="Q70" s="133" t="s">
+      <c r="Q70" s="118" t="s">
         <v>130</v>
       </c>
       <c r="R70" s="3"/>
@@ -43569,12 +44271,12 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="125" t="s">
+      <c r="A73" s="162" t="s">
         <v>2608</v>
       </c>
-      <c r="B73" s="126"/>
-      <c r="C73" s="126"/>
-      <c r="D73" s="127"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="164"/>
       <c r="J73" s="8">
         <v>10</v>
       </c>
@@ -43789,12 +44491,12 @@
         <v>2341</v>
       </c>
       <c r="AC75" s="6"/>
-      <c r="AE75" s="122" t="s">
+      <c r="AE75" s="165" t="s">
         <v>4773</v>
       </c>
-      <c r="AF75" s="123"/>
-      <c r="AG75" s="123"/>
-      <c r="AH75" s="124"/>
+      <c r="AF75" s="166"/>
+      <c r="AG75" s="166"/>
+      <c r="AH75" s="167"/>
       <c r="AJ75" s="10">
         <v>19</v>
       </c>
@@ -44161,12 +44863,12 @@
       <c r="AM79" s="4" t="s">
         <v>4036</v>
       </c>
-      <c r="AO79" s="122" t="s">
+      <c r="AO79" s="165" t="s">
         <v>4779</v>
       </c>
-      <c r="AP79" s="123"/>
-      <c r="AQ79" s="123"/>
-      <c r="AR79" s="124"/>
+      <c r="AP79" s="166"/>
+      <c r="AQ79" s="166"/>
+      <c r="AR79" s="167"/>
     </row>
     <row r="80" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -44215,7 +44917,7 @@
         <v>29</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>4448</v>
+        <v>5193</v>
       </c>
       <c r="AB80" s="5" t="s">
         <v>2271</v>
@@ -44801,12 +45503,12 @@
       <c r="AR86" s="4" t="s">
         <v>3561</v>
       </c>
-      <c r="AT86" s="128" t="s">
+      <c r="AT86" s="171" t="s">
         <v>4782</v>
       </c>
-      <c r="AU86" s="129"/>
-      <c r="AV86" s="129"/>
-      <c r="AW86" s="130"/>
+      <c r="AU86" s="172"/>
+      <c r="AV86" s="172"/>
+      <c r="AW86" s="173"/>
     </row>
     <row r="87" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
@@ -45941,12 +46643,12 @@
       <c r="AC98" s="4" t="s">
         <v>3702</v>
       </c>
-      <c r="AE98" s="138" t="s">
+      <c r="AE98" s="168" t="s">
         <v>4801</v>
       </c>
-      <c r="AF98" s="139"/>
-      <c r="AG98" s="139"/>
-      <c r="AH98" s="140"/>
+      <c r="AF98" s="169"/>
+      <c r="AG98" s="169"/>
+      <c r="AH98" s="170"/>
       <c r="AJ98" s="8">
         <v>42</v>
       </c>
@@ -46073,7 +46775,7 @@
       </c>
     </row>
     <row r="100" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="136">
+      <c r="A100" s="121">
         <v>27</v>
       </c>
       <c r="B100" s="115" t="s">
@@ -46095,12 +46797,12 @@
       <c r="M100" s="4" t="s">
         <v>4739</v>
       </c>
-      <c r="O100" s="122" t="s">
+      <c r="O100" s="165" t="s">
         <v>2609</v>
       </c>
-      <c r="P100" s="123"/>
-      <c r="Q100" s="123"/>
-      <c r="R100" s="124"/>
+      <c r="P100" s="166"/>
+      <c r="Q100" s="166"/>
+      <c r="R100" s="167"/>
       <c r="T100" s="8">
         <v>46</v>
       </c>
@@ -46391,12 +47093,12 @@
         <v>650</v>
       </c>
       <c r="W103" s="4"/>
-      <c r="Z103" s="138" t="s">
+      <c r="Z103" s="168" t="s">
         <v>4798</v>
       </c>
-      <c r="AA103" s="139"/>
-      <c r="AB103" s="139"/>
-      <c r="AC103" s="140"/>
+      <c r="AA103" s="169"/>
+      <c r="AB103" s="169"/>
+      <c r="AC103" s="170"/>
       <c r="AE103" s="10">
         <v>5</v>
       </c>
@@ -46843,12 +47545,12 @@
       <c r="AM108" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="AO108" s="125" t="s">
+      <c r="AO108" s="162" t="s">
         <v>4778</v>
       </c>
-      <c r="AP108" s="126"/>
-      <c r="AQ108" s="126"/>
-      <c r="AR108" s="127"/>
+      <c r="AP108" s="163"/>
+      <c r="AQ108" s="163"/>
+      <c r="AR108" s="164"/>
       <c r="AT108" s="8">
         <v>22</v>
       </c>
@@ -47475,14 +48177,14 @@
       <c r="AM116" s="4" t="s">
         <v>3950</v>
       </c>
-      <c r="AO116" s="125" t="s">
+      <c r="AO116" s="162" t="s">
         <v>4781</v>
       </c>
-      <c r="AP116" s="126"/>
-      <c r="AQ116" s="126" t="s">
+      <c r="AP116" s="163"/>
+      <c r="AQ116" s="163" t="s">
         <v>4780</v>
       </c>
-      <c r="AR116" s="127"/>
+      <c r="AR116" s="164"/>
     </row>
     <row r="117" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
@@ -47913,12 +48615,12 @@
       <c r="D124" s="4" t="s">
         <v>4188</v>
       </c>
-      <c r="J124" s="122" t="s">
+      <c r="J124" s="165" t="s">
         <v>4751</v>
       </c>
-      <c r="K124" s="123"/>
-      <c r="L124" s="123"/>
-      <c r="M124" s="124"/>
+      <c r="K124" s="166"/>
+      <c r="L124" s="166"/>
+      <c r="M124" s="167"/>
       <c r="O124" s="8">
         <v>24</v>
       </c>
@@ -48035,12 +48737,12 @@
       <c r="M127" s="4" t="s">
         <v>3594</v>
       </c>
-      <c r="O127" s="122" t="s">
+      <c r="O127" s="165" t="s">
         <v>4752</v>
       </c>
-      <c r="P127" s="123"/>
-      <c r="Q127" s="123"/>
-      <c r="R127" s="124"/>
+      <c r="P127" s="166"/>
+      <c r="Q127" s="166"/>
+      <c r="R127" s="167"/>
       <c r="AJ127" s="111">
         <v>71</v>
       </c>
@@ -48328,12 +49030,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AY12:BB12"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T54:W54"/>
     <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J124:M124"/>
@@ -48350,17 +49056,13 @@
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AJ56:AM56"/>
     <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="AY12:BB12"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AE98:AH98"/>
     <mergeCell ref="AE56:AH56"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T54:W54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -48656,11 +49358,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="174" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -59031,34 +59733,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E522F5EB-CA00-8C43-9625-FCC2209A4F6D}">
-  <dimension ref="A4:H151"/>
+  <dimension ref="A4:H396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="L397" sqref="L397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="156"/>
-    <col min="4" max="4" width="23.5" style="163" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="127"/>
+    <col min="4" max="4" width="25" style="128" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="34" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="143">
+      <c r="A5" s="180">
         <v>1</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="194" t="s">
         <v>4820</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="129" t="s">
         <v>4805</v>
       </c>
       <c r="E5" s="10">
@@ -59075,12 +59777,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
-      <c r="B6" s="158"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="130" t="s">
         <v>4806</v>
       </c>
       <c r="E6" s="8">
@@ -59097,10 +59799,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="179"/>
       <c r="E7" s="8">
         <v>3</v>
       </c>
@@ -59115,12 +59817,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="159"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="131" t="s">
         <v>4807</v>
       </c>
       <c r="E8" s="9">
@@ -59137,16 +59839,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="143">
+      <c r="A9" s="180">
         <v>2</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="194" t="s">
         <v>4856</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="129" t="s">
         <v>4952</v>
       </c>
       <c r="E9" s="10">
@@ -59163,12 +59865,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="181"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="130" t="s">
         <v>4953</v>
       </c>
       <c r="E10" s="8">
@@ -59185,10 +59887,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="8">
         <v>7</v>
       </c>
@@ -59203,12 +59905,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
-      <c r="B12" s="159"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="D12" s="131" t="s">
         <v>552</v>
       </c>
       <c r="E12" s="9">
@@ -59225,16 +59927,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="143">
+      <c r="A13" s="180">
         <v>3</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="183" t="s">
         <v>4857</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="129" t="s">
         <v>4954</v>
       </c>
       <c r="E13" s="10">
@@ -59243,7 +59945,7 @@
       <c r="F13" s="10" t="s">
         <v>4934</v>
       </c>
-      <c r="G13" s="133" t="s">
+      <c r="G13" s="118" t="s">
         <v>4825</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -59251,12 +59953,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="161"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="130" t="s">
         <v>4955</v>
       </c>
       <c r="E14" s="8">
@@ -59273,12 +59975,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="131" t="s">
         <v>553</v>
       </c>
       <c r="E15" s="8">
@@ -59295,16 +59997,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="143">
+      <c r="A16" s="180">
         <v>4</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="183" t="s">
         <v>4858</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="129" t="s">
         <v>4956</v>
       </c>
       <c r="E16" s="9">
@@ -59321,12 +60023,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="130" t="s">
         <v>4957</v>
       </c>
       <c r="E17" s="10">
@@ -59343,10 +60045,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="167"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="8">
         <v>14</v>
       </c>
@@ -59361,12 +60063,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="182"/>
+      <c r="B19" s="185"/>
       <c r="C19" s="15" t="s">
         <v>3965</v>
       </c>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="133" t="s">
         <v>554</v>
       </c>
       <c r="E19" s="8">
@@ -59383,16 +60085,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="143">
+      <c r="A20" s="180">
         <v>5</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="194" t="s">
         <v>4859</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D20" s="164" t="s">
+      <c r="D20" s="129" t="s">
         <v>4958</v>
       </c>
       <c r="E20" s="9">
@@ -59409,12 +60111,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="158"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="195"/>
       <c r="C21" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="130" t="s">
         <v>4959</v>
       </c>
       <c r="E21" s="10">
@@ -59431,30 +60133,30 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="159"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="131" t="s">
         <v>555</v>
       </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="193"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="143">
+      <c r="A23" s="180">
         <v>6</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="183" t="s">
         <v>4860</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D23" s="164" t="s">
+      <c r="D23" s="129" t="s">
         <v>4960</v>
       </c>
       <c r="E23" s="10">
@@ -59471,12 +60173,12 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="161"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="130" t="s">
         <v>4961</v>
       </c>
       <c r="E24" s="8">
@@ -59493,10 +60195,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="167"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="9">
         <v>20</v>
       </c>
@@ -59511,12 +60213,12 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="162"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="131" t="s">
         <v>556</v>
       </c>
       <c r="E26" s="25">
@@ -59533,16 +60235,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="143">
+      <c r="A27" s="180">
         <v>7</v>
       </c>
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="183" t="s">
         <v>4861</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D27" s="169" t="s">
+      <c r="D27" s="134" t="s">
         <v>4962</v>
       </c>
       <c r="E27" s="11">
@@ -59559,12 +60261,12 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="144"/>
-      <c r="B28" s="161"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D28" s="165" t="s">
+      <c r="D28" s="130" t="s">
         <v>4963</v>
       </c>
       <c r="E28" s="8">
@@ -59581,12 +60283,12 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="135" t="s">
         <v>557</v>
       </c>
       <c r="E29" s="9">
@@ -59603,16 +60305,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="143">
+      <c r="A30" s="180">
         <v>8</v>
       </c>
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="183" t="s">
         <v>4862</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="136" t="s">
         <v>4964</v>
       </c>
       <c r="E30" s="9">
@@ -59629,12 +60331,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="161"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="130" t="s">
         <v>4965</v>
       </c>
       <c r="E31" s="25">
@@ -59651,10 +60353,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="167"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="11">
         <v>27</v>
       </c>
@@ -59669,12 +60371,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="185"/>
       <c r="C33" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="131" t="s">
         <v>558</v>
       </c>
       <c r="E33" s="8">
@@ -59691,16 +60393,16 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="143">
+      <c r="A34" s="180">
         <v>9</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="183" t="s">
         <v>4863</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D34" s="171" t="s">
+      <c r="D34" s="136" t="s">
         <v>4966</v>
       </c>
       <c r="E34" s="9">
@@ -59717,12 +60419,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="144"/>
-      <c r="B35" s="161"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D35" s="165" t="s">
+      <c r="D35" s="130" t="s">
         <v>4967</v>
       </c>
       <c r="E35" s="9">
@@ -59739,12 +60441,12 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="145"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="182"/>
+      <c r="B36" s="185"/>
       <c r="C36" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D36" s="170" t="s">
+      <c r="D36" s="135" t="s">
         <v>559</v>
       </c>
       <c r="E36" s="25">
@@ -59761,16 +60463,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="143">
+      <c r="A37" s="180">
         <v>10</v>
       </c>
-      <c r="B37" s="160" t="s">
+      <c r="B37" s="183" t="s">
         <v>4864</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="129" t="s">
         <v>4892</v>
       </c>
       <c r="E37" s="11">
@@ -59787,12 +60489,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="144"/>
-      <c r="B38" s="161"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D38" s="165" t="s">
+      <c r="D38" s="130" t="s">
         <v>4968</v>
       </c>
       <c r="E38" s="8">
@@ -59809,10 +60511,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="167"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="9">
         <v>34</v>
       </c>
@@ -59827,12 +60529,12 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="145"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="185"/>
       <c r="C40" s="15" t="s">
         <v>3965</v>
       </c>
-      <c r="D40" s="168" t="s">
+      <c r="D40" s="133" t="s">
         <v>560</v>
       </c>
       <c r="E40" s="9">
@@ -59849,16 +60551,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143">
+      <c r="A41" s="180">
         <v>11</v>
       </c>
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="183" t="s">
         <v>4865</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D41" s="164"/>
+      <c r="D41" s="129"/>
       <c r="E41" s="25">
         <v>36</v>
       </c>
@@ -59873,12 +60575,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="144"/>
-      <c r="B42" s="161"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D42" s="165" t="s">
+      <c r="D42" s="130" t="s">
         <v>4969</v>
       </c>
       <c r="E42" s="11">
@@ -59895,12 +60597,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="162"/>
+      <c r="A43" s="182"/>
+      <c r="B43" s="185"/>
       <c r="C43" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="131" t="s">
         <v>4855</v>
       </c>
       <c r="E43" s="8">
@@ -59917,16 +60619,16 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="143">
+      <c r="A44" s="180">
         <v>12</v>
       </c>
-      <c r="B44" s="160" t="s">
+      <c r="B44" s="183" t="s">
         <v>4866</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D44" s="164" t="s">
+      <c r="D44" s="129" t="s">
         <v>4450</v>
       </c>
       <c r="E44" s="9">
@@ -59943,12 +60645,12 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="144"/>
-      <c r="B45" s="161"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D45" s="165" t="s">
+      <c r="D45" s="130" t="s">
         <v>4971</v>
       </c>
       <c r="E45" s="9">
@@ -59965,12 +60667,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="162"/>
+      <c r="A46" s="182"/>
+      <c r="B46" s="185"/>
       <c r="C46" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D46" s="166" t="s">
+      <c r="D46" s="131" t="s">
         <v>4854</v>
       </c>
       <c r="E46" s="25">
@@ -59987,16 +60689,16 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="143">
+      <c r="A47" s="180">
         <v>13</v>
       </c>
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="183" t="s">
         <v>4867</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D47" s="164"/>
+      <c r="D47" s="129"/>
       <c r="E47" s="11">
         <v>42</v>
       </c>
@@ -60011,12 +60713,12 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="144"/>
-      <c r="B48" s="161"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D48" s="165" t="s">
+      <c r="D48" s="130" t="s">
         <v>4972</v>
       </c>
       <c r="E48" s="8">
@@ -60033,30 +60735,30 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="185"/>
       <c r="C49" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D49" s="172" t="s">
+      <c r="D49" s="137" t="s">
         <v>4973</v>
       </c>
-      <c r="E49" s="153"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="155"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="193"/>
     </row>
     <row r="50" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="143">
+      <c r="A50" s="180">
         <v>14</v>
       </c>
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="183" t="s">
         <v>4869</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D50" s="164"/>
+      <c r="D50" s="129"/>
       <c r="E50" s="25">
         <v>44</v>
       </c>
@@ -60071,12 +60773,12 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="144"/>
-      <c r="B51" s="161"/>
+      <c r="A51" s="181"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D51" s="165" t="s">
+      <c r="D51" s="130" t="s">
         <v>4874</v>
       </c>
       <c r="E51" s="8">
@@ -60093,12 +60795,12 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="145"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="182"/>
+      <c r="B52" s="185"/>
       <c r="C52" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D52" s="166" t="s">
+      <c r="D52" s="131" t="s">
         <v>4853</v>
       </c>
       <c r="E52" s="9">
@@ -60115,16 +60817,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="143">
+      <c r="A53" s="180">
         <v>15</v>
       </c>
-      <c r="B53" s="157" t="s">
+      <c r="B53" s="194" t="s">
         <v>3784</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D53" s="164" t="s">
+      <c r="D53" s="129" t="s">
         <v>3786</v>
       </c>
       <c r="E53" s="25">
@@ -60141,12 +60843,12 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="144"/>
-      <c r="B54" s="158"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="195"/>
       <c r="C54" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D54" s="165" t="s">
+      <c r="D54" s="130" t="s">
         <v>4955</v>
       </c>
       <c r="E54" s="8">
@@ -60163,12 +60865,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="145"/>
-      <c r="B55" s="159"/>
+      <c r="A55" s="182"/>
+      <c r="B55" s="196"/>
       <c r="C55" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D55" s="166" t="s">
+      <c r="D55" s="131" t="s">
         <v>5025</v>
       </c>
       <c r="E55" s="9">
@@ -60185,16 +60887,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="143">
+      <c r="A56" s="180">
         <v>16</v>
       </c>
-      <c r="B56" s="157" t="s">
+      <c r="B56" s="194" t="s">
         <v>3785</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D56" s="164" t="s">
+      <c r="D56" s="129" t="s">
         <v>5024</v>
       </c>
       <c r="E56" s="25">
@@ -60211,12 +60913,12 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="144"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="181"/>
+      <c r="B57" s="195"/>
       <c r="C57" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D57" s="165" t="s">
+      <c r="D57" s="130" t="s">
         <v>4970</v>
       </c>
       <c r="E57" s="8">
@@ -60233,12 +60935,12 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="145"/>
-      <c r="B58" s="159"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="196"/>
       <c r="C58" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D58" s="166" t="s">
+      <c r="D58" s="131" t="s">
         <v>859</v>
       </c>
       <c r="E58" s="9">
@@ -60255,16 +60957,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="143">
+      <c r="A59" s="180">
         <v>17</v>
       </c>
-      <c r="B59" s="157" t="s">
+      <c r="B59" s="194" t="s">
         <v>4974</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D59" s="164" t="s">
+      <c r="D59" s="129" t="s">
         <v>5022</v>
       </c>
       <c r="E59" s="25">
@@ -60281,12 +60983,12 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="144"/>
-      <c r="B60" s="158"/>
+      <c r="A60" s="181"/>
+      <c r="B60" s="195"/>
       <c r="C60" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D60" s="165" t="s">
+      <c r="D60" s="130" t="s">
         <v>5023</v>
       </c>
       <c r="E60" s="8">
@@ -60303,12 +61005,12 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="145"/>
-      <c r="B61" s="159"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="196"/>
       <c r="C61" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D61" s="166" t="s">
+      <c r="D61" s="131" t="s">
         <v>5028</v>
       </c>
       <c r="E61" s="9">
@@ -60325,16 +61027,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="143">
+      <c r="A62" s="180">
         <v>18</v>
       </c>
-      <c r="B62" s="157" t="s">
+      <c r="B62" s="194" t="s">
         <v>4975</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D62" s="164" t="s">
+      <c r="D62" s="129" t="s">
         <v>3724</v>
       </c>
       <c r="E62" s="25">
@@ -60351,12 +61053,12 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="144"/>
-      <c r="B63" s="158"/>
+      <c r="A63" s="181"/>
+      <c r="B63" s="195"/>
       <c r="C63" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D63" s="165" t="s">
+      <c r="D63" s="130" t="s">
         <v>5021</v>
       </c>
       <c r="E63" s="8">
@@ -60373,12 +61075,12 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="145"/>
-      <c r="B64" s="159"/>
+      <c r="A64" s="182"/>
+      <c r="B64" s="196"/>
       <c r="C64" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D64" s="166" t="s">
+      <c r="D64" s="131" t="s">
         <v>5033</v>
       </c>
       <c r="E64" s="9">
@@ -60395,16 +61097,16 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="143">
+      <c r="A65" s="180">
         <v>19</v>
       </c>
-      <c r="B65" s="157" t="s">
+      <c r="B65" s="194" t="s">
         <v>3983</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D65" s="164" t="s">
+      <c r="D65" s="129" t="s">
         <v>3989</v>
       </c>
       <c r="E65" s="25">
@@ -60421,12 +61123,12 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="144"/>
-      <c r="B66" s="158"/>
+      <c r="A66" s="181"/>
+      <c r="B66" s="195"/>
       <c r="C66" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D66" s="165" t="s">
+      <c r="D66" s="130" t="s">
         <v>5020</v>
       </c>
       <c r="E66" s="8">
@@ -60443,12 +61145,12 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="145"/>
-      <c r="B67" s="159"/>
+      <c r="A67" s="182"/>
+      <c r="B67" s="196"/>
       <c r="C67" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D67" s="166" t="s">
+      <c r="D67" s="131" t="s">
         <v>1416</v>
       </c>
       <c r="E67" s="9">
@@ -60465,16 +61167,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="143">
+      <c r="A68" s="180">
         <v>20</v>
       </c>
-      <c r="B68" s="157" t="s">
+      <c r="B68" s="194" t="s">
         <v>4976</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D68" s="164" t="s">
+      <c r="D68" s="129" t="s">
         <v>5019</v>
       </c>
       <c r="E68" s="25">
@@ -60491,12 +61193,12 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="144"/>
-      <c r="B69" s="158"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="195"/>
       <c r="C69" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D69" s="165" t="s">
+      <c r="D69" s="130" t="s">
         <v>5018</v>
       </c>
       <c r="E69" s="8">
@@ -60513,12 +61215,12 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="145"/>
-      <c r="B70" s="159"/>
+      <c r="A70" s="182"/>
+      <c r="B70" s="196"/>
       <c r="C70" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D70" s="166" t="s">
+      <c r="D70" s="131" t="s">
         <v>5037</v>
       </c>
       <c r="E70" s="9">
@@ -60535,16 +61237,16 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="143">
+      <c r="A71" s="180">
         <v>21</v>
       </c>
-      <c r="B71" s="157" t="s">
+      <c r="B71" s="194" t="s">
         <v>3985</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D71" s="164" t="s">
+      <c r="D71" s="129" t="s">
         <v>3990</v>
       </c>
       <c r="E71" s="25">
@@ -60561,12 +61263,12 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="144"/>
-      <c r="B72" s="158"/>
+      <c r="A72" s="181"/>
+      <c r="B72" s="195"/>
       <c r="C72" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D72" s="165" t="s">
+      <c r="D72" s="130" t="s">
         <v>5017</v>
       </c>
       <c r="E72" s="8">
@@ -60583,30 +61285,30 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="145"/>
-      <c r="B73" s="159"/>
+      <c r="A73" s="182"/>
+      <c r="B73" s="196"/>
       <c r="C73" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D73" s="166" t="s">
+      <c r="D73" s="131" t="s">
         <v>1417</v>
       </c>
-      <c r="E73" s="150"/>
-      <c r="F73" s="151"/>
-      <c r="G73" s="151"/>
-      <c r="H73" s="152"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="190"/>
+      <c r="G73" s="190"/>
+      <c r="H73" s="191"/>
     </row>
     <row r="74" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="143">
+      <c r="A74" s="180">
         <v>22</v>
       </c>
-      <c r="B74" s="160" t="s">
+      <c r="B74" s="183" t="s">
         <v>3711</v>
       </c>
-      <c r="C74" s="175" t="s">
+      <c r="C74" s="140" t="s">
         <v>4803</v>
       </c>
-      <c r="D74" s="173" t="s">
+      <c r="D74" s="138" t="s">
         <v>3710</v>
       </c>
       <c r="E74" s="10">
@@ -60623,12 +61325,12 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="144"/>
-      <c r="B75" s="161"/>
-      <c r="C75" s="176" t="s">
+      <c r="A75" s="181"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="141" t="s">
         <v>4804</v>
       </c>
-      <c r="D75" s="174" t="s">
+      <c r="D75" s="139" t="s">
         <v>5016</v>
       </c>
       <c r="E75" s="8">
@@ -60645,10 +61347,10 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="144"/>
-      <c r="B76" s="161"/>
-      <c r="C76" s="146"/>
-      <c r="D76" s="195"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="184"/>
+      <c r="C76" s="178"/>
+      <c r="D76" s="186"/>
       <c r="E76" s="8">
         <v>69</v>
       </c>
@@ -60663,12 +61365,12 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="144"/>
-      <c r="B77" s="161"/>
-      <c r="C77" s="192" t="s">
+      <c r="A77" s="181"/>
+      <c r="B77" s="184"/>
+      <c r="C77" s="155" t="s">
         <v>3965</v>
       </c>
-      <c r="D77" s="193" t="s">
+      <c r="D77" s="156" t="s">
         <v>808</v>
       </c>
       <c r="E77" s="8">
@@ -60685,10 +61387,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="144"/>
-      <c r="B78" s="161"/>
-      <c r="C78" s="153"/>
-      <c r="D78" s="154"/>
+      <c r="A78" s="181"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="188"/>
       <c r="E78" s="8">
         <v>71</v>
       </c>
@@ -60703,10 +61405,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="145"/>
-      <c r="B79" s="162"/>
-      <c r="C79" s="179"/>
-      <c r="D79" s="180"/>
+      <c r="A79" s="182"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="176"/>
       <c r="E79" s="9">
         <v>72</v>
       </c>
@@ -60721,19 +61423,19 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="143">
+      <c r="A80" s="180">
         <v>23</v>
       </c>
-      <c r="B80" s="157" t="s">
+      <c r="B80" s="194" t="s">
         <v>3982</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D80" s="164" t="s">
+      <c r="D80" s="129" t="s">
         <v>5015</v>
       </c>
-      <c r="E80" s="132">
+      <c r="E80" s="117">
         <v>73</v>
       </c>
       <c r="F80" s="11" t="s">
@@ -60747,52 +61449,52 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="144"/>
-      <c r="B81" s="158"/>
+      <c r="A81" s="181"/>
+      <c r="B81" s="195"/>
       <c r="C81" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D81" s="165" t="s">
+      <c r="D81" s="130" t="s">
         <v>5014</v>
       </c>
-      <c r="E81" s="183">
+      <c r="E81" s="146">
         <v>74</v>
       </c>
-      <c r="F81" s="183" t="s">
+      <c r="F81" s="146" t="s">
         <v>957</v>
       </c>
-      <c r="G81" s="184" t="s">
+      <c r="G81" s="147" t="s">
         <v>5040</v>
       </c>
-      <c r="H81" s="185" t="s">
+      <c r="H81" s="148" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="144"/>
-      <c r="B82" s="158"/>
-      <c r="C82" s="146"/>
-      <c r="D82" s="147"/>
-      <c r="E82" s="186">
+      <c r="A82" s="181"/>
+      <c r="B82" s="195"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="149">
         <v>75</v>
       </c>
-      <c r="F82" s="187" t="s">
+      <c r="F82" s="150" t="s">
         <v>5005</v>
       </c>
-      <c r="G82" s="188" t="s">
+      <c r="G82" s="151" t="s">
         <v>5041</v>
       </c>
-      <c r="H82" s="189" t="s">
+      <c r="H82" s="152" t="s">
         <v>5007</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="145"/>
-      <c r="B83" s="159"/>
+      <c r="A83" s="182"/>
+      <c r="B83" s="196"/>
       <c r="C83" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D83" s="166" t="s">
+      <c r="D83" s="131" t="s">
         <v>5039</v>
       </c>
       <c r="E83" s="15">
@@ -60809,19 +61511,19 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="143">
+      <c r="A84" s="180">
         <v>24</v>
       </c>
-      <c r="B84" s="160" t="s">
+      <c r="B84" s="183" t="s">
         <v>4291</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D84" s="164" t="s">
+      <c r="D84" s="129" t="s">
         <v>4290</v>
       </c>
-      <c r="E84" s="181">
+      <c r="E84" s="144">
         <v>77</v>
       </c>
       <c r="F84" s="10" t="s">
@@ -60835,15 +61537,15 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="144"/>
-      <c r="B85" s="161"/>
+      <c r="A85" s="181"/>
+      <c r="B85" s="184"/>
       <c r="C85" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D85" s="165" t="s">
+      <c r="D85" s="130" t="s">
         <v>5013</v>
       </c>
-      <c r="E85" s="177">
+      <c r="E85" s="142">
         <v>78</v>
       </c>
       <c r="F85" s="8" t="s">
@@ -60857,15 +61559,15 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="145"/>
-      <c r="B86" s="162"/>
+      <c r="A86" s="182"/>
+      <c r="B86" s="185"/>
       <c r="C86" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D86" s="166" t="s">
+      <c r="D86" s="131" t="s">
         <v>5043</v>
       </c>
-      <c r="E86" s="141">
+      <c r="E86" s="123">
         <v>79</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -60879,19 +61581,19 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="143">
+      <c r="A87" s="180">
         <v>25</v>
       </c>
-      <c r="B87" s="160" t="s">
+      <c r="B87" s="183" t="s">
         <v>4420</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D87" s="164" t="s">
+      <c r="D87" s="129" t="s">
         <v>4419</v>
       </c>
-      <c r="E87" s="181">
+      <c r="E87" s="144">
         <v>80</v>
       </c>
       <c r="F87" s="10" t="s">
@@ -60905,15 +61607,15 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="144"/>
-      <c r="B88" s="161"/>
+      <c r="A88" s="181"/>
+      <c r="B88" s="184"/>
       <c r="C88" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D88" s="165" t="s">
+      <c r="D88" s="130" t="s">
         <v>5089</v>
       </c>
-      <c r="E88" s="177">
+      <c r="E88" s="142">
         <v>81</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -60927,15 +61629,15 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="145"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="182"/>
+      <c r="B89" s="185"/>
       <c r="C89" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D89" s="166" t="s">
+      <c r="D89" s="131" t="s">
         <v>5104</v>
       </c>
-      <c r="E89" s="141">
+      <c r="E89" s="123">
         <v>82</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -60949,19 +61651,19 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="143">
+      <c r="A90" s="180">
         <v>26</v>
       </c>
-      <c r="B90" s="160" t="s">
+      <c r="B90" s="183" t="s">
         <v>5047</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D90" s="164" t="s">
+      <c r="D90" s="129" t="s">
         <v>5090</v>
       </c>
-      <c r="E90" s="181">
+      <c r="E90" s="144">
         <v>83</v>
       </c>
       <c r="F90" s="10" t="s">
@@ -60975,15 +61677,15 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="144"/>
-      <c r="B91" s="161"/>
+      <c r="A91" s="181"/>
+      <c r="B91" s="184"/>
       <c r="C91" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D91" s="190" t="s">
+      <c r="D91" s="153" t="s">
         <v>5091</v>
       </c>
-      <c r="E91" s="177">
+      <c r="E91" s="142">
         <v>84</v>
       </c>
       <c r="F91" s="11" t="s">
@@ -60997,11 +61699,11 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="144"/>
-      <c r="B92" s="161"/>
-      <c r="C92" s="146"/>
-      <c r="D92" s="147"/>
-      <c r="E92" s="141">
+      <c r="A92" s="181"/>
+      <c r="B92" s="184"/>
+      <c r="C92" s="178"/>
+      <c r="D92" s="179"/>
+      <c r="E92" s="123">
         <v>85</v>
       </c>
       <c r="F92" s="11" t="s">
@@ -61015,15 +61717,15 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="144"/>
-      <c r="B93" s="161"/>
-      <c r="C93" s="176" t="s">
+      <c r="A93" s="181"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="141" t="s">
         <v>3965</v>
       </c>
-      <c r="D93" s="182" t="s">
+      <c r="D93" s="145" t="s">
         <v>2291</v>
       </c>
-      <c r="E93" s="177">
+      <c r="E93" s="142">
         <v>86</v>
       </c>
       <c r="F93" s="8" t="s">
@@ -61037,11 +61739,11 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="145"/>
-      <c r="B94" s="162"/>
-      <c r="C94" s="180"/>
-      <c r="D94" s="180"/>
-      <c r="E94" s="141">
+      <c r="A94" s="182"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="176"/>
+      <c r="D94" s="176"/>
+      <c r="E94" s="123">
         <v>87</v>
       </c>
       <c r="F94" s="9" t="s">
@@ -61055,19 +61757,19 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="143">
+      <c r="A95" s="180">
         <v>27</v>
       </c>
-      <c r="B95" s="160" t="s">
+      <c r="B95" s="183" t="s">
         <v>3681</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D95" s="164" t="s">
+      <c r="D95" s="129" t="s">
         <v>3673</v>
       </c>
-      <c r="E95" s="177">
+      <c r="E95" s="142">
         <v>88</v>
       </c>
       <c r="F95" s="10" t="s">
@@ -61081,15 +61783,15 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="144"/>
-      <c r="B96" s="161"/>
+      <c r="A96" s="181"/>
+      <c r="B96" s="184"/>
       <c r="C96" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D96" s="165" t="s">
+      <c r="D96" s="130" t="s">
         <v>5092</v>
       </c>
-      <c r="E96" s="141">
+      <c r="E96" s="123">
         <v>89</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -61103,15 +61805,15 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="145"/>
-      <c r="B97" s="162"/>
+      <c r="A97" s="182"/>
+      <c r="B97" s="185"/>
       <c r="C97" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D97" s="166" t="s">
+      <c r="D97" s="131" t="s">
         <v>798</v>
       </c>
-      <c r="E97" s="177">
+      <c r="E97" s="142">
         <v>90</v>
       </c>
       <c r="F97" s="9" t="s">
@@ -61125,19 +61827,19 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="143">
+      <c r="A98" s="180">
         <v>28</v>
       </c>
-      <c r="B98" s="160" t="s">
+      <c r="B98" s="183" t="s">
         <v>3570</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D98" s="164" t="s">
+      <c r="D98" s="129" t="s">
         <v>3569</v>
       </c>
-      <c r="E98" s="141">
+      <c r="E98" s="123">
         <v>91</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -61151,15 +61853,15 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="144"/>
-      <c r="B99" s="161"/>
+      <c r="A99" s="181"/>
+      <c r="B99" s="184"/>
       <c r="C99" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D99" s="165" t="s">
+      <c r="D99" s="130" t="s">
         <v>5093</v>
       </c>
-      <c r="E99" s="177">
+      <c r="E99" s="142">
         <v>92</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -61173,15 +61875,15 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="145"/>
-      <c r="B100" s="162"/>
+      <c r="A100" s="182"/>
+      <c r="B100" s="185"/>
       <c r="C100" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D100" s="166" t="s">
+      <c r="D100" s="131" t="s">
         <v>676</v>
       </c>
-      <c r="E100" s="141">
+      <c r="E100" s="123">
         <v>93</v>
       </c>
       <c r="F100" s="9" t="s">
@@ -61195,22 +61897,22 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="143">
+      <c r="A101" s="180">
         <v>29</v>
       </c>
-      <c r="B101" s="160" t="s">
+      <c r="B101" s="183" t="s">
         <v>4260</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D101" s="164" t="s">
+      <c r="D101" s="129" t="s">
         <v>5094</v>
       </c>
-      <c r="E101" s="177">
+      <c r="E101" s="142">
         <v>94</v>
       </c>
-      <c r="F101" s="149" t="s">
+      <c r="F101" s="126" t="s">
         <v>3580</v>
       </c>
       <c r="G101" s="2" t="s">
@@ -61221,15 +61923,15 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="144"/>
-      <c r="B102" s="161"/>
+      <c r="A102" s="181"/>
+      <c r="B102" s="184"/>
       <c r="C102" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D102" s="165" t="s">
+      <c r="D102" s="130" t="s">
         <v>5095</v>
       </c>
-      <c r="E102" s="141">
+      <c r="E102" s="123">
         <v>95</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -61243,15 +61945,15 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="145"/>
-      <c r="B103" s="162"/>
+      <c r="A103" s="182"/>
+      <c r="B103" s="185"/>
       <c r="C103" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D103" s="168" t="s">
+      <c r="D103" s="133" t="s">
         <v>5105</v>
       </c>
-      <c r="E103" s="177">
+      <c r="E103" s="142">
         <v>96</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -61265,19 +61967,19 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="143">
+      <c r="A104" s="180">
         <v>30</v>
       </c>
-      <c r="B104" s="160" t="s">
+      <c r="B104" s="183" t="s">
         <v>5048</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D104" s="164" t="s">
+      <c r="D104" s="129" t="s">
         <v>5059</v>
       </c>
-      <c r="E104" s="141">
+      <c r="E104" s="123">
         <v>97</v>
       </c>
       <c r="F104" s="10" t="s">
@@ -61291,15 +61993,15 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="144"/>
-      <c r="B105" s="161"/>
+      <c r="A105" s="181"/>
+      <c r="B105" s="184"/>
       <c r="C105" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D105" s="165" t="s">
+      <c r="D105" s="130" t="s">
         <v>5096</v>
       </c>
-      <c r="E105" s="177">
+      <c r="E105" s="142">
         <v>98</v>
       </c>
       <c r="F105" s="8" t="s">
@@ -61313,33 +62015,33 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="144"/>
-      <c r="B106" s="161"/>
+      <c r="A106" s="181"/>
+      <c r="B106" s="184"/>
       <c r="C106" s="15" t="s">
         <v>3965</v>
       </c>
-      <c r="D106" s="182" t="s">
+      <c r="D106" s="145" t="s">
         <v>5106</v>
       </c>
-      <c r="E106" s="153"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="155"/>
+      <c r="E106" s="187"/>
+      <c r="F106" s="188"/>
+      <c r="G106" s="188"/>
+      <c r="H106" s="193"/>
     </row>
     <row r="107" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="143">
+      <c r="A107" s="180">
         <v>31</v>
       </c>
-      <c r="B107" s="160" t="s">
+      <c r="B107" s="183" t="s">
         <v>4054</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D107" s="164" t="s">
+      <c r="D107" s="129" t="s">
         <v>5097</v>
       </c>
-      <c r="E107" s="181">
+      <c r="E107" s="144">
         <v>99</v>
       </c>
       <c r="F107" s="10" t="s">
@@ -61353,18 +62055,18 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="144"/>
-      <c r="B108" s="161"/>
+      <c r="A108" s="181"/>
+      <c r="B108" s="184"/>
       <c r="C108" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D108" s="165" t="s">
+      <c r="D108" s="130" t="s">
         <v>5098</v>
       </c>
-      <c r="E108" s="177">
+      <c r="E108" s="142">
         <v>100</v>
       </c>
-      <c r="F108" s="149" t="s">
+      <c r="F108" s="126" t="s">
         <v>5061</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -61375,11 +62077,11 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="144"/>
-      <c r="B109" s="161"/>
-      <c r="C109" s="146"/>
-      <c r="D109" s="147"/>
-      <c r="E109" s="141">
+      <c r="A109" s="181"/>
+      <c r="B109" s="184"/>
+      <c r="C109" s="178"/>
+      <c r="D109" s="179"/>
+      <c r="E109" s="123">
         <v>101</v>
       </c>
       <c r="F109" s="15" t="s">
@@ -61393,15 +62095,15 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="144"/>
-      <c r="B110" s="161"/>
-      <c r="C110" s="176" t="s">
+      <c r="A110" s="181"/>
+      <c r="B110" s="184"/>
+      <c r="C110" s="141" t="s">
         <v>3965</v>
       </c>
-      <c r="D110" s="182" t="s">
+      <c r="D110" s="145" t="s">
         <v>5107</v>
       </c>
-      <c r="E110" s="177">
+      <c r="E110" s="142">
         <v>102</v>
       </c>
       <c r="F110" s="15" t="s">
@@ -61415,11 +62117,11 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="145"/>
-      <c r="B111" s="162"/>
-      <c r="C111" s="180"/>
-      <c r="D111" s="180"/>
-      <c r="E111" s="141">
+      <c r="A111" s="182"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="176"/>
+      <c r="D111" s="176"/>
+      <c r="E111" s="123">
         <v>103</v>
       </c>
       <c r="F111" s="9" t="s">
@@ -61433,19 +62135,19 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="143">
+      <c r="A112" s="180">
         <v>32</v>
       </c>
-      <c r="B112" s="160" t="s">
+      <c r="B112" s="183" t="s">
         <v>5049</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D112" s="164" t="s">
+      <c r="D112" s="129" t="s">
         <v>5064</v>
       </c>
-      <c r="E112" s="177">
+      <c r="E112" s="142">
         <v>104</v>
       </c>
       <c r="F112" s="10" t="s">
@@ -61459,15 +62161,15 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="144"/>
-      <c r="B113" s="161"/>
+      <c r="A113" s="181"/>
+      <c r="B113" s="184"/>
       <c r="C113" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D113" s="165" t="s">
+      <c r="D113" s="130" t="s">
         <v>5099</v>
       </c>
-      <c r="E113" s="141">
+      <c r="E113" s="123">
         <v>105</v>
       </c>
       <c r="F113" s="8" t="s">
@@ -61481,11 +62183,11 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="144"/>
-      <c r="B114" s="161"/>
-      <c r="C114" s="146"/>
-      <c r="D114" s="147"/>
-      <c r="E114" s="177">
+      <c r="A114" s="181"/>
+      <c r="B114" s="184"/>
+      <c r="C114" s="178"/>
+      <c r="D114" s="179"/>
+      <c r="E114" s="142">
         <v>106</v>
       </c>
       <c r="F114" s="15" t="s">
@@ -61499,15 +62201,15 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="144"/>
-      <c r="B115" s="161"/>
-      <c r="C115" s="176" t="s">
+      <c r="A115" s="181"/>
+      <c r="B115" s="184"/>
+      <c r="C115" s="141" t="s">
         <v>3965</v>
       </c>
-      <c r="D115" s="182" t="s">
+      <c r="D115" s="145" t="s">
         <v>5108</v>
       </c>
-      <c r="E115" s="141">
+      <c r="E115" s="123">
         <v>107</v>
       </c>
       <c r="F115" s="15" t="s">
@@ -61521,11 +62223,11 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="144"/>
-      <c r="B116" s="161"/>
-      <c r="C116" s="142"/>
-      <c r="D116" s="142"/>
-      <c r="E116" s="191">
+      <c r="A116" s="181"/>
+      <c r="B116" s="184"/>
+      <c r="C116" s="192"/>
+      <c r="D116" s="192"/>
+      <c r="E116" s="154">
         <v>108</v>
       </c>
       <c r="F116" s="15" t="s">
@@ -61539,10 +62241,10 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="143">
+      <c r="A117" s="180">
         <v>33</v>
       </c>
-      <c r="B117" s="160" t="s">
+      <c r="B117" s="183" t="s">
         <v>494</v>
       </c>
       <c r="C117" s="10" t="s">
@@ -61551,7 +62253,7 @@
       <c r="D117" s="10" t="s">
         <v>5100</v>
       </c>
-      <c r="E117" s="181">
+      <c r="E117" s="144">
         <v>109</v>
       </c>
       <c r="F117" s="10" t="s">
@@ -61565,13 +62267,13 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="144"/>
-      <c r="B118" s="161"/>
+      <c r="A118" s="181"/>
+      <c r="B118" s="184"/>
       <c r="C118" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D118" s="165"/>
-      <c r="E118" s="177">
+      <c r="D118" s="130"/>
+      <c r="E118" s="142">
         <v>110</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -61585,15 +62287,15 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="145"/>
-      <c r="B119" s="162"/>
+      <c r="A119" s="182"/>
+      <c r="B119" s="185"/>
       <c r="C119" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D119" s="166" t="s">
+      <c r="D119" s="131" t="s">
         <v>5101</v>
       </c>
-      <c r="E119" s="178">
+      <c r="E119" s="143">
         <v>111</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -61607,22 +62309,22 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="143">
+      <c r="A120" s="180">
         <v>34</v>
       </c>
-      <c r="B120" s="160" t="s">
+      <c r="B120" s="183" t="s">
         <v>3471</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D120" s="164" t="s">
+      <c r="D120" s="129" t="s">
         <v>3470</v>
       </c>
-      <c r="E120" s="181">
+      <c r="E120" s="144">
         <v>112</v>
       </c>
-      <c r="F120" s="149" t="s">
+      <c r="F120" s="126" t="s">
         <v>3470</v>
       </c>
       <c r="G120" s="2" t="s">
@@ -61633,36 +62335,36 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="144"/>
-      <c r="B121" s="161"/>
+      <c r="A121" s="181"/>
+      <c r="B121" s="184"/>
       <c r="C121" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D121" s="165" t="s">
+      <c r="D121" s="130" t="s">
         <v>5165</v>
       </c>
-      <c r="E121" s="177">
+      <c r="E121" s="142">
         <v>113</v>
       </c>
-      <c r="F121" s="149" t="s">
+      <c r="F121" s="126" t="s">
         <v>5157</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>5132</v>
       </c>
-      <c r="H121" s="149" t="s">
+      <c r="H121" s="126" t="s">
         <v>5156</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="144"/>
-      <c r="B122" s="161"/>
-      <c r="C122" s="146"/>
-      <c r="D122" s="147"/>
-      <c r="E122" s="178">
+      <c r="A122" s="181"/>
+      <c r="B122" s="184"/>
+      <c r="C122" s="178"/>
+      <c r="D122" s="179"/>
+      <c r="E122" s="143">
         <v>114</v>
       </c>
-      <c r="F122" s="149" t="s">
+      <c r="F122" s="126" t="s">
         <v>4935</v>
       </c>
       <c r="G122" s="12" t="s">
@@ -61673,15 +62375,15 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="144"/>
-      <c r="B123" s="161"/>
-      <c r="C123" s="176" t="s">
+      <c r="A123" s="181"/>
+      <c r="B123" s="184"/>
+      <c r="C123" s="141" t="s">
         <v>3965</v>
       </c>
-      <c r="D123" s="182" t="s">
+      <c r="D123" s="145" t="s">
         <v>5119</v>
       </c>
-      <c r="E123" s="181">
+      <c r="E123" s="144">
         <v>115</v>
       </c>
       <c r="F123" s="8" t="s">
@@ -61695,11 +62397,11 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="145"/>
-      <c r="B124" s="162"/>
-      <c r="C124" s="150"/>
-      <c r="D124" s="152"/>
-      <c r="E124" s="177">
+      <c r="A124" s="182"/>
+      <c r="B124" s="185"/>
+      <c r="C124" s="189"/>
+      <c r="D124" s="191"/>
+      <c r="E124" s="142">
         <v>116</v>
       </c>
       <c r="F124" s="9" t="s">
@@ -61713,22 +62415,22 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="143">
+      <c r="A125" s="180">
         <v>35</v>
       </c>
-      <c r="B125" s="160" t="s">
+      <c r="B125" s="183" t="s">
         <v>5150</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D125" s="164" t="s">
+      <c r="D125" s="129" t="s">
         <v>485</v>
       </c>
-      <c r="E125" s="178">
+      <c r="E125" s="143">
         <v>117</v>
       </c>
-      <c r="F125" s="149" t="s">
+      <c r="F125" s="126" t="s">
         <v>5158</v>
       </c>
       <c r="G125" s="2" t="s">
@@ -61739,15 +62441,15 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="144"/>
-      <c r="B126" s="161"/>
+      <c r="A126" s="181"/>
+      <c r="B126" s="184"/>
       <c r="C126" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D126" s="165" t="s">
+      <c r="D126" s="130" t="s">
         <v>4957</v>
       </c>
-      <c r="E126" s="181">
+      <c r="E126" s="144">
         <v>118</v>
       </c>
       <c r="F126" s="8" t="s">
@@ -61761,15 +62463,15 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="145"/>
-      <c r="B127" s="162"/>
+      <c r="A127" s="182"/>
+      <c r="B127" s="185"/>
       <c r="C127" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D127" s="168" t="s">
+      <c r="D127" s="133" t="s">
         <v>5120</v>
       </c>
-      <c r="E127" s="177">
+      <c r="E127" s="142">
         <v>119</v>
       </c>
       <c r="F127" s="9" t="s">
@@ -61783,22 +62485,22 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="143">
+      <c r="A128" s="180">
         <v>36</v>
       </c>
-      <c r="B128" s="160" t="s">
+      <c r="B128" s="183" t="s">
         <v>4687</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D128" s="164" t="s">
+      <c r="D128" s="129" t="s">
         <v>4685</v>
       </c>
-      <c r="E128" s="178">
+      <c r="E128" s="143">
         <v>120</v>
       </c>
-      <c r="F128" s="149" t="s">
+      <c r="F128" s="126" t="s">
         <v>4685</v>
       </c>
       <c r="G128" s="2" t="s">
@@ -61809,15 +62511,15 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="144"/>
-      <c r="B129" s="161"/>
+      <c r="A129" s="181"/>
+      <c r="B129" s="184"/>
       <c r="C129" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D129" s="165" t="s">
+      <c r="D129" s="130" t="s">
         <v>5170</v>
       </c>
-      <c r="E129" s="181">
+      <c r="E129" s="144">
         <v>121</v>
       </c>
       <c r="F129" s="8" t="s">
@@ -61831,15 +62533,15 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="145"/>
-      <c r="B130" s="162"/>
+      <c r="A130" s="182"/>
+      <c r="B130" s="185"/>
       <c r="C130" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D130" s="168" t="s">
+      <c r="D130" s="133" t="s">
         <v>5121</v>
       </c>
-      <c r="E130" s="177">
+      <c r="E130" s="142">
         <v>122</v>
       </c>
       <c r="F130" s="9" t="s">
@@ -61853,22 +62555,22 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="143">
+      <c r="A131" s="180">
         <v>37</v>
       </c>
-      <c r="B131" s="160" t="s">
+      <c r="B131" s="183" t="s">
         <v>4688</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D131" s="164" t="s">
+      <c r="D131" s="129" t="s">
         <v>4686</v>
       </c>
-      <c r="E131" s="178">
+      <c r="E131" s="143">
         <v>123</v>
       </c>
-      <c r="F131" s="149" t="s">
+      <c r="F131" s="126" t="s">
         <v>4686</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -61879,15 +62581,15 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="144"/>
-      <c r="B132" s="161"/>
+      <c r="A132" s="181"/>
+      <c r="B132" s="184"/>
       <c r="C132" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D132" s="165" t="s">
+      <c r="D132" s="130" t="s">
         <v>5171</v>
       </c>
-      <c r="E132" s="181">
+      <c r="E132" s="144">
         <v>124</v>
       </c>
       <c r="F132" s="8" t="s">
@@ -61901,15 +62603,15 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="145"/>
-      <c r="B133" s="162"/>
+      <c r="A133" s="182"/>
+      <c r="B133" s="185"/>
       <c r="C133" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D133" s="168" t="s">
+      <c r="D133" s="133" t="s">
         <v>5122</v>
       </c>
-      <c r="E133" s="177">
+      <c r="E133" s="142">
         <v>125</v>
       </c>
       <c r="F133" s="9" t="s">
@@ -61923,22 +62625,22 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="143">
+      <c r="A134" s="180">
         <v>38</v>
       </c>
-      <c r="B134" s="160" t="s">
+      <c r="B134" s="183" t="s">
         <v>5151</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D134" s="164" t="s">
+      <c r="D134" s="129" t="s">
         <v>5172</v>
       </c>
-      <c r="E134" s="178">
+      <c r="E134" s="143">
         <v>126</v>
       </c>
-      <c r="F134" s="149" t="s">
+      <c r="F134" s="126" t="s">
         <v>3607</v>
       </c>
       <c r="G134" s="2" t="s">
@@ -61949,15 +62651,15 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="144"/>
-      <c r="B135" s="161"/>
+      <c r="A135" s="181"/>
+      <c r="B135" s="184"/>
       <c r="C135" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D135" s="165" t="s">
+      <c r="D135" s="130" t="s">
         <v>5173</v>
       </c>
-      <c r="E135" s="181">
+      <c r="E135" s="144">
         <v>127</v>
       </c>
       <c r="F135" s="8" t="s">
@@ -61971,11 +62673,11 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="144"/>
-      <c r="B136" s="161"/>
-      <c r="C136" s="146"/>
-      <c r="D136" s="147"/>
-      <c r="E136" s="178">
+      <c r="A136" s="181"/>
+      <c r="B136" s="184"/>
+      <c r="C136" s="178"/>
+      <c r="D136" s="179"/>
+      <c r="E136" s="143">
         <v>128</v>
       </c>
       <c r="F136" s="15" t="s">
@@ -61989,15 +62691,15 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="145"/>
-      <c r="B137" s="162"/>
+      <c r="A137" s="182"/>
+      <c r="B137" s="185"/>
       <c r="C137" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D137" s="168" t="s">
+      <c r="D137" s="133" t="s">
         <v>5123</v>
       </c>
-      <c r="E137" s="181">
+      <c r="E137" s="144">
         <v>129</v>
       </c>
       <c r="F137" s="9" t="s">
@@ -62011,22 +62713,22 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="143">
+      <c r="A138" s="180">
         <v>39</v>
       </c>
-      <c r="B138" s="160" t="s">
+      <c r="B138" s="183" t="s">
         <v>5152</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D138" s="164" t="s">
+      <c r="D138" s="129" t="s">
         <v>5178</v>
       </c>
-      <c r="E138" s="178">
+      <c r="E138" s="143">
         <v>130</v>
       </c>
-      <c r="F138" s="149" t="s">
+      <c r="F138" s="126" t="s">
         <v>5160</v>
       </c>
       <c r="G138" s="2" t="s">
@@ -62037,15 +62739,15 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="144"/>
-      <c r="B139" s="161"/>
+      <c r="A139" s="181"/>
+      <c r="B139" s="184"/>
       <c r="C139" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D139" s="165" t="s">
+      <c r="D139" s="130" t="s">
         <v>5179</v>
       </c>
-      <c r="E139" s="181">
+      <c r="E139" s="144">
         <v>131</v>
       </c>
       <c r="F139" s="8" t="s">
@@ -62059,11 +62761,11 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="144"/>
-      <c r="B140" s="161"/>
-      <c r="C140" s="146"/>
-      <c r="D140" s="147"/>
-      <c r="E140" s="178">
+      <c r="A140" s="181"/>
+      <c r="B140" s="184"/>
+      <c r="C140" s="178"/>
+      <c r="D140" s="179"/>
+      <c r="E140" s="143">
         <v>132</v>
       </c>
       <c r="F140" s="15" t="s">
@@ -62077,15 +62779,15 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="145"/>
-      <c r="B141" s="162"/>
+      <c r="A141" s="182"/>
+      <c r="B141" s="185"/>
       <c r="C141" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D141" s="168" t="s">
+      <c r="D141" s="133" t="s">
         <v>5124</v>
       </c>
-      <c r="E141" s="181">
+      <c r="E141" s="144">
         <v>133</v>
       </c>
       <c r="F141" s="9" t="s">
@@ -62099,22 +62801,22 @@
       </c>
     </row>
     <row r="142" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="143">
+      <c r="A142" s="180">
         <v>40</v>
       </c>
-      <c r="B142" s="160" t="s">
+      <c r="B142" s="183" t="s">
         <v>5153</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D142" s="164" t="s">
+      <c r="D142" s="129" t="s">
         <v>5182</v>
       </c>
-      <c r="E142" s="178">
+      <c r="E142" s="143">
         <v>134</v>
       </c>
-      <c r="F142" s="149" t="s">
+      <c r="F142" s="126" t="s">
         <v>3695</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -62125,15 +62827,15 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="144"/>
-      <c r="B143" s="161"/>
+      <c r="A143" s="181"/>
+      <c r="B143" s="184"/>
       <c r="C143" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D143" s="165" t="s">
+      <c r="D143" s="130" t="s">
         <v>5183</v>
       </c>
-      <c r="E143" s="178">
+      <c r="E143" s="143">
         <v>135</v>
       </c>
       <c r="F143" s="8" t="s">
@@ -62147,36 +62849,36 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="145"/>
-      <c r="B144" s="162"/>
+      <c r="A144" s="182"/>
+      <c r="B144" s="185"/>
       <c r="C144" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D144" s="168" t="s">
+      <c r="D144" s="133" t="s">
         <v>5125</v>
       </c>
-      <c r="E144" s="179"/>
-      <c r="F144" s="180"/>
-      <c r="G144" s="180"/>
-      <c r="H144" s="194"/>
+      <c r="E144" s="175"/>
+      <c r="F144" s="176"/>
+      <c r="G144" s="176"/>
+      <c r="H144" s="177"/>
     </row>
     <row r="145" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="143">
+      <c r="A145" s="180">
         <v>41</v>
       </c>
-      <c r="B145" s="160" t="s">
+      <c r="B145" s="183" t="s">
         <v>5154</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D145" s="164" t="s">
+      <c r="D145" s="129" t="s">
         <v>5186</v>
       </c>
-      <c r="E145" s="181">
+      <c r="E145" s="144">
         <v>136</v>
       </c>
-      <c r="F145" s="149" t="s">
+      <c r="F145" s="126" t="s">
         <v>5161</v>
       </c>
       <c r="G145" s="2" t="s">
@@ -62187,15 +62889,15 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="144"/>
-      <c r="B146" s="161"/>
+      <c r="A146" s="181"/>
+      <c r="B146" s="184"/>
       <c r="C146" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D146" s="165" t="s">
+      <c r="D146" s="130" t="s">
         <v>5187</v>
       </c>
-      <c r="E146" s="181">
+      <c r="E146" s="144">
         <v>137</v>
       </c>
       <c r="F146" s="8" t="s">
@@ -62209,44 +62911,44 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="145"/>
-      <c r="B147" s="162"/>
+      <c r="A147" s="182"/>
+      <c r="B147" s="185"/>
       <c r="C147" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D147" s="168" t="s">
+      <c r="D147" s="133" t="s">
         <v>5126</v>
       </c>
-      <c r="E147" s="181">
+      <c r="E147" s="144">
         <v>138</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F147" s="15" t="s">
         <v>5188</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G147" s="16" t="s">
         <v>5149</v>
       </c>
-      <c r="H147" s="6" t="s">
+      <c r="H147" s="17" t="s">
         <v>5189</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="143">
+      <c r="A148" s="180">
         <v>42</v>
       </c>
-      <c r="B148" s="160" t="s">
+      <c r="B148" s="183" t="s">
         <v>5155</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>4803</v>
       </c>
-      <c r="D148" s="164" t="s">
+      <c r="D148" s="129" t="s">
         <v>5190</v>
       </c>
-      <c r="E148" s="181">
+      <c r="E148" s="197">
         <v>139</v>
       </c>
-      <c r="F148" s="196" t="s">
+      <c r="F148" s="198" t="s">
         <v>5190</v>
       </c>
       <c r="G148" s="2" t="s">
@@ -62257,15 +62959,15 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="144"/>
-      <c r="B149" s="161"/>
+      <c r="A149" s="181"/>
+      <c r="B149" s="184"/>
       <c r="C149" s="8" t="s">
         <v>4804</v>
       </c>
-      <c r="D149" s="165" t="s">
+      <c r="D149" s="130" t="s">
         <v>4970</v>
       </c>
-      <c r="E149" s="181">
+      <c r="E149" s="197">
         <v>140</v>
       </c>
       <c r="F149" s="8" t="s">
@@ -62274,52 +62976,4349 @@
       <c r="G149" s="1" t="s">
         <v>5129</v>
       </c>
-      <c r="H149" s="8" t="s">
+      <c r="H149" s="4" t="s">
         <v>5191</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="144"/>
-      <c r="B150" s="161"/>
-      <c r="C150" s="146"/>
-      <c r="D150" s="147"/>
-      <c r="E150" s="181">
+      <c r="A150" s="181"/>
+      <c r="B150" s="184"/>
+      <c r="C150" s="178"/>
+      <c r="D150" s="179"/>
+      <c r="E150" s="197">
         <v>141</v>
       </c>
-      <c r="F150" s="15" t="s">
+      <c r="F150" s="8" t="s">
         <v>5163</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G150" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="H150" s="17" t="s">
+      <c r="H150" s="4" t="s">
         <v>5164</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="145"/>
-      <c r="B151" s="162"/>
+      <c r="A151" s="182"/>
+      <c r="B151" s="185"/>
       <c r="C151" s="9" t="s">
         <v>3965</v>
       </c>
-      <c r="D151" s="166" t="s">
+      <c r="D151" s="131" t="s">
         <v>5127</v>
       </c>
-      <c r="E151" s="181">
+      <c r="E151" s="197">
         <v>142</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" s="15" t="s">
         <v>3418</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="G151" s="16" t="s">
         <v>5130</v>
       </c>
-      <c r="H151" s="6" t="s">
+      <c r="H151" s="17" t="s">
         <v>3417</v>
       </c>
     </row>
+    <row r="152" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="180">
+        <v>43</v>
+      </c>
+      <c r="B152" s="183"/>
+      <c r="C152" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D152" s="129"/>
+      <c r="E152" s="197">
+        <v>139</v>
+      </c>
+      <c r="F152" s="198"/>
+      <c r="G152" s="2" t="s">
+        <v>5196</v>
+      </c>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="181"/>
+      <c r="B153" s="184"/>
+      <c r="C153" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D153" s="130"/>
+      <c r="E153" s="197">
+        <v>140</v>
+      </c>
+      <c r="F153" s="8"/>
+      <c r="G153" s="147" t="s">
+        <v>5197</v>
+      </c>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="181"/>
+      <c r="B154" s="184"/>
+      <c r="C154" s="178"/>
+      <c r="D154" s="179"/>
+      <c r="E154" s="197">
+        <v>141</v>
+      </c>
+      <c r="F154" s="8"/>
+      <c r="G154" s="147" t="s">
+        <v>5198</v>
+      </c>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="181"/>
+      <c r="B155" s="184"/>
+      <c r="C155" s="141" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D155" s="145" t="s">
+        <v>5194</v>
+      </c>
+      <c r="E155" s="197">
+        <v>142</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="181"/>
+      <c r="B156" s="184"/>
+      <c r="C156" s="187"/>
+      <c r="D156" s="193"/>
+      <c r="E156" s="203">
+        <v>143</v>
+      </c>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16" t="s">
+        <v>5199</v>
+      </c>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="180">
+        <v>44</v>
+      </c>
+      <c r="B157" s="183"/>
+      <c r="C157" s="208" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D157" s="210"/>
+      <c r="E157" s="197">
+        <v>144</v>
+      </c>
+      <c r="F157" s="118"/>
+      <c r="G157" s="2" t="s">
+        <v>5200</v>
+      </c>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="181"/>
+      <c r="B158" s="184"/>
+      <c r="C158" s="209"/>
+      <c r="D158" s="211"/>
+      <c r="E158" s="197">
+        <v>145</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="181"/>
+      <c r="B159" s="184"/>
+      <c r="C159" s="208" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D159" s="210"/>
+      <c r="E159" s="197">
+        <v>146</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="147" t="s">
+        <v>5201</v>
+      </c>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="181"/>
+      <c r="B160" s="184"/>
+      <c r="C160" s="209"/>
+      <c r="D160" s="211"/>
+      <c r="E160" s="201">
+        <v>147</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="147" t="s">
+        <v>5202</v>
+      </c>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="181"/>
+      <c r="B161" s="184"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="124"/>
+      <c r="E161" s="197">
+        <v>148</v>
+      </c>
+      <c r="F161" s="18"/>
+      <c r="G161" s="147" t="s">
+        <v>5201</v>
+      </c>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="181"/>
+      <c r="B162" s="184"/>
+      <c r="C162" s="141" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D162" s="145" t="s">
+        <v>5195</v>
+      </c>
+      <c r="E162" s="197">
+        <v>149</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>5203</v>
+      </c>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="181"/>
+      <c r="B163" s="184"/>
+      <c r="C163" s="187"/>
+      <c r="D163" s="193"/>
+      <c r="E163" s="197">
+        <v>150</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>5204</v>
+      </c>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="182"/>
+      <c r="B164" s="185"/>
+      <c r="C164" s="175"/>
+      <c r="D164" s="177"/>
+      <c r="E164" s="197">
+        <v>151</v>
+      </c>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H164" s="17"/>
+    </row>
+    <row r="165" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="181">
+        <v>46</v>
+      </c>
+      <c r="B165" s="184"/>
+      <c r="C165" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D165" s="129"/>
+      <c r="E165" s="204">
+        <v>152</v>
+      </c>
+      <c r="F165" s="198"/>
+      <c r="G165" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="181"/>
+      <c r="B166" s="184"/>
+      <c r="C166" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D166" s="130"/>
+      <c r="E166" s="197">
+        <v>153</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="1" t="s">
+        <v>5206</v>
+      </c>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="181"/>
+      <c r="B167" s="184"/>
+      <c r="C167" s="178"/>
+      <c r="D167" s="179"/>
+      <c r="E167" s="197">
+        <v>154</v>
+      </c>
+      <c r="F167" s="8"/>
+      <c r="G167" s="1" t="s">
+        <v>5207</v>
+      </c>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="182"/>
+      <c r="B168" s="185"/>
+      <c r="C168" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D168" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="E168" s="197">
+        <v>155</v>
+      </c>
+      <c r="F168" s="9"/>
+      <c r="G168" s="199" t="s">
+        <v>5205</v>
+      </c>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="180">
+        <v>47</v>
+      </c>
+      <c r="B169" s="183"/>
+      <c r="C169" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D169" s="129"/>
+      <c r="E169" s="197">
+        <v>156</v>
+      </c>
+      <c r="F169" s="198"/>
+      <c r="G169" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="181"/>
+      <c r="B170" s="184"/>
+      <c r="C170" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D170" s="130"/>
+      <c r="E170" s="197">
+        <v>157</v>
+      </c>
+      <c r="F170" s="8"/>
+      <c r="G170" s="1" t="s">
+        <v>5208</v>
+      </c>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="181"/>
+      <c r="B171" s="184"/>
+      <c r="C171" s="178"/>
+      <c r="D171" s="179"/>
+      <c r="E171" s="197">
+        <v>158</v>
+      </c>
+      <c r="F171" s="8"/>
+      <c r="G171" s="1" t="s">
+        <v>5209</v>
+      </c>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="181"/>
+      <c r="B172" s="184"/>
+      <c r="C172" s="141" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D172" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E172" s="197">
+        <v>159</v>
+      </c>
+      <c r="F172" s="8"/>
+      <c r="G172" s="147" t="s">
+        <v>5210</v>
+      </c>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="182"/>
+      <c r="B173" s="185"/>
+      <c r="C173" s="187"/>
+      <c r="D173" s="193"/>
+      <c r="E173" s="197">
+        <v>160</v>
+      </c>
+      <c r="F173" s="15"/>
+      <c r="G173" s="16" t="s">
+        <v>5211</v>
+      </c>
+      <c r="H173" s="17"/>
+    </row>
+    <row r="174" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="180">
+        <v>48</v>
+      </c>
+      <c r="B174" s="183"/>
+      <c r="C174" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D174" s="129"/>
+      <c r="E174" s="197">
+        <v>161</v>
+      </c>
+      <c r="F174" s="198"/>
+      <c r="G174" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="181"/>
+      <c r="B175" s="184"/>
+      <c r="C175" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D175" s="130"/>
+      <c r="E175" s="197">
+        <v>162</v>
+      </c>
+      <c r="F175" s="8"/>
+      <c r="G175" s="147" t="s">
+        <v>5213</v>
+      </c>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="181"/>
+      <c r="B176" s="184"/>
+      <c r="C176" s="178"/>
+      <c r="D176" s="179"/>
+      <c r="E176" s="197">
+        <v>163</v>
+      </c>
+      <c r="F176" s="8"/>
+      <c r="G176" s="1" t="s">
+        <v>5214</v>
+      </c>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="182"/>
+      <c r="B177" s="185"/>
+      <c r="C177" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D177" s="131" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E177" s="197">
+        <v>164</v>
+      </c>
+      <c r="F177" s="15"/>
+      <c r="G177" s="16" t="s">
+        <v>5215</v>
+      </c>
+      <c r="H177" s="17"/>
+    </row>
+    <row r="178" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="180">
+        <v>49</v>
+      </c>
+      <c r="B178" s="183"/>
+      <c r="C178" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D178" s="129"/>
+      <c r="E178" s="197">
+        <v>165</v>
+      </c>
+      <c r="F178" s="198"/>
+      <c r="G178" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="181"/>
+      <c r="B179" s="184"/>
+      <c r="C179" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D179" s="130"/>
+      <c r="E179" s="197">
+        <v>166</v>
+      </c>
+      <c r="F179" s="8"/>
+      <c r="G179" s="147" t="s">
+        <v>5216</v>
+      </c>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="181"/>
+      <c r="B180" s="184"/>
+      <c r="C180" s="178"/>
+      <c r="D180" s="179"/>
+      <c r="E180" s="197">
+        <v>167</v>
+      </c>
+      <c r="F180" s="8"/>
+      <c r="G180" s="1" t="s">
+        <v>5217</v>
+      </c>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="182"/>
+      <c r="B181" s="185"/>
+      <c r="C181" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D181" s="131" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E181" s="197">
+        <v>168</v>
+      </c>
+      <c r="F181" s="15"/>
+      <c r="G181" s="16" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H181" s="17"/>
+    </row>
+    <row r="182" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="180">
+        <v>50</v>
+      </c>
+      <c r="B182" s="183"/>
+      <c r="C182" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D182" s="129"/>
+      <c r="E182" s="197">
+        <v>169</v>
+      </c>
+      <c r="F182" s="198"/>
+      <c r="G182" s="2" t="s">
+        <v>4116</v>
+      </c>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="181"/>
+      <c r="B183" s="184"/>
+      <c r="C183" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D183" s="130"/>
+      <c r="E183" s="197">
+        <v>170</v>
+      </c>
+      <c r="F183" s="8"/>
+      <c r="G183" s="1" t="s">
+        <v>5220</v>
+      </c>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="182"/>
+      <c r="B184" s="185"/>
+      <c r="C184" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D184" s="131" t="s">
+        <v>4116</v>
+      </c>
+      <c r="E184" s="197">
+        <v>171</v>
+      </c>
+      <c r="F184" s="15"/>
+      <c r="G184" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="H184" s="17"/>
+    </row>
+    <row r="185" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="180">
+        <v>51</v>
+      </c>
+      <c r="B185" s="183"/>
+      <c r="C185" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D185" s="129"/>
+      <c r="E185" s="197">
+        <v>172</v>
+      </c>
+      <c r="F185" s="198"/>
+      <c r="G185" s="2" t="s">
+        <v>4195</v>
+      </c>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="181"/>
+      <c r="B186" s="184"/>
+      <c r="C186" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D186" s="130"/>
+      <c r="E186" s="197">
+        <v>173</v>
+      </c>
+      <c r="F186" s="8"/>
+      <c r="G186" s="1" t="s">
+        <v>5221</v>
+      </c>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="181"/>
+      <c r="B187" s="184"/>
+      <c r="C187" s="178"/>
+      <c r="D187" s="179"/>
+      <c r="E187" s="197">
+        <v>174</v>
+      </c>
+      <c r="F187" s="8"/>
+      <c r="G187" s="1" t="s">
+        <v>5222</v>
+      </c>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="182"/>
+      <c r="B188" s="185"/>
+      <c r="C188" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D188" s="131" t="s">
+        <v>4195</v>
+      </c>
+      <c r="E188" s="197">
+        <v>175</v>
+      </c>
+      <c r="F188" s="9"/>
+      <c r="G188" s="5" t="s">
+        <v>5223</v>
+      </c>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="180">
+        <v>52</v>
+      </c>
+      <c r="B189" s="183"/>
+      <c r="C189" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D189" s="129"/>
+      <c r="E189" s="197">
+        <v>176</v>
+      </c>
+      <c r="F189" s="198"/>
+      <c r="G189" s="2" t="s">
+        <v>4117</v>
+      </c>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="181"/>
+      <c r="B190" s="184"/>
+      <c r="C190" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D190" s="130"/>
+      <c r="E190" s="197">
+        <v>177</v>
+      </c>
+      <c r="F190" s="8"/>
+      <c r="G190" s="1" t="s">
+        <v>5224</v>
+      </c>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="182"/>
+      <c r="B191" s="185"/>
+      <c r="C191" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D191" s="131" t="s">
+        <v>4117</v>
+      </c>
+      <c r="E191" s="197">
+        <v>178</v>
+      </c>
+      <c r="F191" s="15"/>
+      <c r="G191" s="16" t="s">
+        <v>5225</v>
+      </c>
+      <c r="H191" s="17"/>
+    </row>
+    <row r="192" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="180">
+        <v>53</v>
+      </c>
+      <c r="B192" s="183"/>
+      <c r="C192" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D192" s="129"/>
+      <c r="E192" s="197">
+        <v>179</v>
+      </c>
+      <c r="F192" s="198"/>
+      <c r="G192" s="2" t="s">
+        <v>4118</v>
+      </c>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="181"/>
+      <c r="B193" s="184"/>
+      <c r="C193" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D193" s="130"/>
+      <c r="E193" s="197">
+        <v>180</v>
+      </c>
+      <c r="F193" s="8"/>
+      <c r="G193" s="1" t="s">
+        <v>5226</v>
+      </c>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="181"/>
+      <c r="B194" s="184"/>
+      <c r="C194" s="178"/>
+      <c r="D194" s="179"/>
+      <c r="E194" s="197">
+        <v>181</v>
+      </c>
+      <c r="F194" s="8"/>
+      <c r="G194" s="1" t="s">
+        <v>5227</v>
+      </c>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="181"/>
+      <c r="B195" s="184"/>
+      <c r="C195" s="141" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D195" s="145" t="s">
+        <v>4118</v>
+      </c>
+      <c r="E195" s="197">
+        <v>182</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="182"/>
+      <c r="B196" s="185"/>
+      <c r="C196" s="187"/>
+      <c r="D196" s="193"/>
+      <c r="E196" s="197">
+        <v>183</v>
+      </c>
+      <c r="F196" s="9"/>
+      <c r="G196" s="5" t="s">
+        <v>5228</v>
+      </c>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="180">
+        <v>54</v>
+      </c>
+      <c r="B197" s="183"/>
+      <c r="C197" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D197" s="129"/>
+      <c r="E197" s="197">
+        <v>184</v>
+      </c>
+      <c r="F197" s="213"/>
+      <c r="G197" s="12" t="s">
+        <v>5229</v>
+      </c>
+      <c r="H197" s="13"/>
+    </row>
+    <row r="198" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="181"/>
+      <c r="B198" s="184"/>
+      <c r="C198" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D198" s="130"/>
+      <c r="E198" s="197">
+        <v>185</v>
+      </c>
+      <c r="F198" s="8"/>
+      <c r="G198" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="181"/>
+      <c r="B199" s="184"/>
+      <c r="C199" s="178"/>
+      <c r="D199" s="179"/>
+      <c r="E199" s="197">
+        <v>186</v>
+      </c>
+      <c r="F199" s="8"/>
+      <c r="G199" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="182"/>
+      <c r="B200" s="185"/>
+      <c r="C200" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D200" s="131" t="s">
+        <v>5230</v>
+      </c>
+      <c r="E200" s="197">
+        <v>187</v>
+      </c>
+      <c r="F200" s="15"/>
+      <c r="G200" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="H200" s="17"/>
+    </row>
+    <row r="201" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="180">
+        <v>55</v>
+      </c>
+      <c r="B201" s="183"/>
+      <c r="C201" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D201" s="129"/>
+      <c r="E201" s="197">
+        <v>188</v>
+      </c>
+      <c r="F201" s="198"/>
+      <c r="G201" s="2" t="s">
+        <v>5232</v>
+      </c>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="181"/>
+      <c r="B202" s="184"/>
+      <c r="C202" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D202" s="130"/>
+      <c r="E202" s="197">
+        <v>189</v>
+      </c>
+      <c r="F202" s="8"/>
+      <c r="G202" s="1" t="s">
+        <v>5233</v>
+      </c>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="182"/>
+      <c r="B203" s="185"/>
+      <c r="C203" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D203" s="131" t="s">
+        <v>5231</v>
+      </c>
+      <c r="E203" s="175"/>
+      <c r="F203" s="192"/>
+      <c r="G203" s="192"/>
+      <c r="H203" s="207"/>
+    </row>
+    <row r="204" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="180">
+        <v>56</v>
+      </c>
+      <c r="B204" s="183"/>
+      <c r="C204" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D204" s="129"/>
+      <c r="E204" s="197">
+        <v>190</v>
+      </c>
+      <c r="F204" s="198"/>
+      <c r="G204" s="2" t="s">
+        <v>5234</v>
+      </c>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="181"/>
+      <c r="B205" s="184"/>
+      <c r="C205" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D205" s="130"/>
+      <c r="E205" s="197">
+        <v>191</v>
+      </c>
+      <c r="F205" s="8"/>
+      <c r="G205" s="1" t="s">
+        <v>5235</v>
+      </c>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="182"/>
+      <c r="B206" s="185"/>
+      <c r="C206" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D206" s="131" t="s">
+        <v>5234</v>
+      </c>
+      <c r="E206" s="197">
+        <v>192</v>
+      </c>
+      <c r="F206" s="15"/>
+      <c r="G206" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="H206" s="17"/>
+    </row>
+    <row r="207" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="180">
+        <v>57</v>
+      </c>
+      <c r="B207" s="183"/>
+      <c r="C207" s="11" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D207" s="202"/>
+      <c r="E207" s="204">
+        <v>193</v>
+      </c>
+      <c r="F207" s="198"/>
+      <c r="G207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="181"/>
+      <c r="B208" s="184"/>
+      <c r="C208" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D208" s="130"/>
+      <c r="E208" s="197">
+        <v>194</v>
+      </c>
+      <c r="F208" s="8"/>
+      <c r="G208" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="181"/>
+      <c r="B209" s="184"/>
+      <c r="C209" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D209" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="197">
+        <v>196</v>
+      </c>
+      <c r="F209" s="15"/>
+      <c r="G209" s="16" t="s">
+        <v>5236</v>
+      </c>
+      <c r="H209" s="17"/>
+    </row>
+    <row r="210" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="180">
+        <v>58</v>
+      </c>
+      <c r="B210" s="183"/>
+      <c r="C210" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D210" s="138"/>
+      <c r="E210" s="144">
+        <v>197</v>
+      </c>
+      <c r="F210" s="198"/>
+      <c r="G210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="181"/>
+      <c r="B211" s="184"/>
+      <c r="C211" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D211" s="139"/>
+      <c r="E211" s="215">
+        <v>198</v>
+      </c>
+      <c r="F211" s="8"/>
+      <c r="G211" s="1" t="s">
+        <v>5237</v>
+      </c>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="181"/>
+      <c r="B212" s="184"/>
+      <c r="C212" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D212" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="189"/>
+      <c r="F212" s="188"/>
+      <c r="G212" s="188"/>
+      <c r="H212" s="193"/>
+    </row>
+    <row r="213" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="180">
+        <v>59</v>
+      </c>
+      <c r="B213" s="183"/>
+      <c r="C213" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D213" s="129"/>
+      <c r="E213" s="197">
+        <v>199</v>
+      </c>
+      <c r="F213" s="198"/>
+      <c r="G213" s="2" t="s">
+        <v>5238</v>
+      </c>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="181"/>
+      <c r="B214" s="184"/>
+      <c r="C214" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D214" s="130"/>
+      <c r="E214" s="197">
+        <v>200</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="G214" s="1" t="s">
+        <v>5239</v>
+      </c>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="182"/>
+      <c r="B215" s="185"/>
+      <c r="C215" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D215" s="131" t="s">
+        <v>5242</v>
+      </c>
+      <c r="E215" s="175"/>
+      <c r="F215" s="176"/>
+      <c r="G215" s="176"/>
+      <c r="H215" s="177"/>
+    </row>
+    <row r="216" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="180">
+        <v>60</v>
+      </c>
+      <c r="B216" s="183"/>
+      <c r="C216" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D216" s="129"/>
+      <c r="E216" s="204">
+        <v>201</v>
+      </c>
+      <c r="F216" s="198"/>
+      <c r="G216" s="2" t="s">
+        <v>5240</v>
+      </c>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="181"/>
+      <c r="B217" s="184"/>
+      <c r="C217" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D217" s="130"/>
+      <c r="E217" s="197">
+        <v>202</v>
+      </c>
+      <c r="F217" s="8"/>
+      <c r="G217" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="182"/>
+      <c r="B218" s="185"/>
+      <c r="C218" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D218" s="131" t="s">
+        <v>5243</v>
+      </c>
+      <c r="E218" s="204">
+        <v>203</v>
+      </c>
+      <c r="F218" s="15"/>
+      <c r="G218" s="16" t="s">
+        <v>5241</v>
+      </c>
+      <c r="H218" s="17"/>
+    </row>
+    <row r="219" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="180">
+        <v>61</v>
+      </c>
+      <c r="B219" s="183"/>
+      <c r="C219" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D219" s="129"/>
+      <c r="E219" s="197">
+        <v>204</v>
+      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="181"/>
+      <c r="B220" s="184"/>
+      <c r="C220" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D220" s="130"/>
+      <c r="E220" s="204">
+        <v>205</v>
+      </c>
+      <c r="F220" s="8"/>
+      <c r="G220" s="1" t="s">
+        <v>5244</v>
+      </c>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="181"/>
+      <c r="B221" s="184"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="212"/>
+      <c r="E221" s="197">
+        <v>206</v>
+      </c>
+      <c r="F221" s="21"/>
+      <c r="G221" s="1" t="s">
+        <v>5245</v>
+      </c>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="182"/>
+      <c r="B222" s="185"/>
+      <c r="C222" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D222" s="131" t="s">
+        <v>5247</v>
+      </c>
+      <c r="E222" s="204">
+        <v>207</v>
+      </c>
+      <c r="F222" s="9"/>
+      <c r="G222" s="5" t="s">
+        <v>5246</v>
+      </c>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="180">
+        <v>62</v>
+      </c>
+      <c r="B223" s="183"/>
+      <c r="C223" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D223" s="129"/>
+      <c r="E223" s="204">
+        <v>208</v>
+      </c>
+      <c r="F223" s="121"/>
+      <c r="G223" s="115" t="s">
+        <v>5248</v>
+      </c>
+      <c r="H223" s="116"/>
+    </row>
+    <row r="224" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="181"/>
+      <c r="B224" s="184"/>
+      <c r="C224" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D224" s="130"/>
+      <c r="E224" s="204">
+        <v>209</v>
+      </c>
+      <c r="F224" s="121"/>
+      <c r="G224" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="H224" s="116"/>
+    </row>
+    <row r="225" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="182"/>
+      <c r="B225" s="185"/>
+      <c r="C225" s="15" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D225" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="E225" s="204">
+        <v>210</v>
+      </c>
+      <c r="F225" s="15"/>
+      <c r="G225" s="16" t="s">
+        <v>5249</v>
+      </c>
+      <c r="H225" s="17"/>
+    </row>
+    <row r="226" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="180">
+        <v>63</v>
+      </c>
+      <c r="B226" s="194"/>
+      <c r="C226" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D226" s="129"/>
+      <c r="E226" s="204">
+        <v>211</v>
+      </c>
+      <c r="F226" s="198"/>
+      <c r="G226" s="2" t="s">
+        <v>5250</v>
+      </c>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="181"/>
+      <c r="B227" s="195"/>
+      <c r="C227" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D227" s="130"/>
+      <c r="E227" s="204">
+        <v>212</v>
+      </c>
+      <c r="F227" s="9"/>
+      <c r="G227" s="5" t="s">
+        <v>5251</v>
+      </c>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="182"/>
+      <c r="B228" s="196"/>
+      <c r="C228" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D228" s="131" t="s">
+        <v>5258</v>
+      </c>
+      <c r="E228" s="217"/>
+      <c r="F228" s="169"/>
+      <c r="G228" s="169"/>
+      <c r="H228" s="170"/>
+    </row>
+    <row r="229" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="180">
+        <v>64</v>
+      </c>
+      <c r="B229" s="183"/>
+      <c r="C229" s="11" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D229" s="202"/>
+      <c r="E229" s="197">
+        <v>213</v>
+      </c>
+      <c r="F229" s="198"/>
+      <c r="G229" s="2" t="s">
+        <v>5252</v>
+      </c>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="181"/>
+      <c r="B230" s="184"/>
+      <c r="C230" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D230" s="130"/>
+      <c r="E230" s="204">
+        <v>214</v>
+      </c>
+      <c r="F230" s="8"/>
+      <c r="G230" s="1" t="s">
+        <v>5253</v>
+      </c>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="181"/>
+      <c r="B231" s="184"/>
+      <c r="C231" s="178"/>
+      <c r="D231" s="179"/>
+      <c r="E231" s="197">
+        <v>215</v>
+      </c>
+      <c r="F231" s="8"/>
+      <c r="G231" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" spans="1:8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="182"/>
+      <c r="B232" s="185"/>
+      <c r="C232" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D232" s="137" t="s">
+        <v>5259</v>
+      </c>
+      <c r="E232" s="204">
+        <v>216</v>
+      </c>
+      <c r="F232" s="15"/>
+      <c r="G232" s="16" t="s">
+        <v>5254</v>
+      </c>
+      <c r="H232" s="17"/>
+    </row>
+    <row r="233" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="180">
+        <v>65</v>
+      </c>
+      <c r="B233" s="183"/>
+      <c r="C233" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D233" s="129"/>
+      <c r="E233" s="197">
+        <v>217</v>
+      </c>
+      <c r="F233" s="198"/>
+      <c r="G233" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="181"/>
+      <c r="B234" s="184"/>
+      <c r="C234" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D234" s="130"/>
+      <c r="E234" s="204">
+        <v>218</v>
+      </c>
+      <c r="F234" s="8"/>
+      <c r="G234" s="1" t="s">
+        <v>5255</v>
+      </c>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="181"/>
+      <c r="B235" s="184"/>
+      <c r="C235" s="178"/>
+      <c r="D235" s="179"/>
+      <c r="E235" s="197">
+        <v>219</v>
+      </c>
+      <c r="F235" s="8"/>
+      <c r="G235" s="147" t="s">
+        <v>5256</v>
+      </c>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="182"/>
+      <c r="B236" s="185"/>
+      <c r="C236" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D236" s="131" t="s">
+        <v>5260</v>
+      </c>
+      <c r="E236" s="197">
+        <v>220</v>
+      </c>
+      <c r="F236" s="15"/>
+      <c r="G236" s="218" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H236" s="17"/>
+    </row>
+    <row r="237" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="180">
+        <v>66</v>
+      </c>
+      <c r="B237" s="183"/>
+      <c r="C237" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D237" s="129"/>
+      <c r="E237" s="197">
+        <v>221</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="181"/>
+      <c r="B238" s="184"/>
+      <c r="C238" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D238" s="130"/>
+      <c r="E238" s="204">
+        <v>222</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="182"/>
+      <c r="B239" s="185"/>
+      <c r="C239" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D239" s="131" t="s">
+        <v>879</v>
+      </c>
+      <c r="E239" s="175"/>
+      <c r="F239" s="176"/>
+      <c r="G239" s="176"/>
+      <c r="H239" s="177"/>
+    </row>
+    <row r="240" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="180">
+        <v>67</v>
+      </c>
+      <c r="B240" s="183"/>
+      <c r="C240" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D240" s="129"/>
+      <c r="E240" s="197">
+        <v>223</v>
+      </c>
+      <c r="F240" s="35"/>
+      <c r="G240" s="36" t="s">
+        <v>5261</v>
+      </c>
+      <c r="H240" s="37"/>
+    </row>
+    <row r="241" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="181"/>
+      <c r="B241" s="184"/>
+      <c r="C241" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D241" s="130"/>
+      <c r="E241" s="204">
+        <v>224</v>
+      </c>
+      <c r="F241" s="121"/>
+      <c r="G241" s="115" t="s">
+        <v>5109</v>
+      </c>
+      <c r="H241" s="116"/>
+    </row>
+    <row r="242" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="182"/>
+      <c r="B242" s="185"/>
+      <c r="C242" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D242" s="131" t="s">
+        <v>5261</v>
+      </c>
+      <c r="E242" s="197">
+        <v>225</v>
+      </c>
+      <c r="F242" s="9"/>
+      <c r="G242" s="5" t="s">
+        <v>5263</v>
+      </c>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="180">
+        <v>68</v>
+      </c>
+      <c r="B243" s="183"/>
+      <c r="C243" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D243" s="129"/>
+      <c r="E243" s="204">
+        <v>226</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2" t="s">
+        <v>5262</v>
+      </c>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="181"/>
+      <c r="B244" s="184"/>
+      <c r="C244" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D244" s="130"/>
+      <c r="E244" s="197">
+        <v>227</v>
+      </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1" t="s">
+        <v>5264</v>
+      </c>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="182"/>
+      <c r="B245" s="185"/>
+      <c r="C245" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D245" s="131" t="s">
+        <v>5262</v>
+      </c>
+      <c r="E245" s="175"/>
+      <c r="F245" s="176"/>
+      <c r="G245" s="176"/>
+      <c r="H245" s="177"/>
+    </row>
+    <row r="246" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="180">
+        <v>69</v>
+      </c>
+      <c r="B246" s="183"/>
+      <c r="C246" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D246" s="129"/>
+      <c r="E246" s="204">
+        <v>228</v>
+      </c>
+      <c r="F246" s="35"/>
+      <c r="G246" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="H246" s="37"/>
+    </row>
+    <row r="247" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="181"/>
+      <c r="B247" s="184"/>
+      <c r="C247" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D247" s="130"/>
+      <c r="E247" s="204">
+        <v>229</v>
+      </c>
+      <c r="F247" s="121"/>
+      <c r="G247" s="115" t="s">
+        <v>5265</v>
+      </c>
+      <c r="H247" s="116"/>
+    </row>
+    <row r="248" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="182"/>
+      <c r="B248" s="185"/>
+      <c r="C248" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D248" s="131" t="s">
+        <v>699</v>
+      </c>
+      <c r="E248" s="204">
+        <v>230</v>
+      </c>
+      <c r="F248" s="9"/>
+      <c r="G248" s="5" t="s">
+        <v>5266</v>
+      </c>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="180">
+        <v>70</v>
+      </c>
+      <c r="B249" s="183"/>
+      <c r="C249" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D249" s="129"/>
+      <c r="E249" s="204">
+        <v>231</v>
+      </c>
+      <c r="F249" s="35"/>
+      <c r="G249" s="36" t="s">
+        <v>4082</v>
+      </c>
+      <c r="H249" s="37"/>
+    </row>
+    <row r="250" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="181"/>
+      <c r="B250" s="184"/>
+      <c r="C250" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D250" s="130"/>
+      <c r="E250" s="144">
+        <v>232</v>
+      </c>
+      <c r="F250" s="223"/>
+      <c r="G250" s="115" t="s">
+        <v>5267</v>
+      </c>
+      <c r="H250" s="116"/>
+    </row>
+    <row r="251" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="182"/>
+      <c r="B251" s="185"/>
+      <c r="C251" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D251" s="131" t="s">
+        <v>4082</v>
+      </c>
+      <c r="E251" s="222">
+        <v>233</v>
+      </c>
+      <c r="F251" s="221"/>
+      <c r="G251" s="151" t="s">
+        <v>5268</v>
+      </c>
+      <c r="H251" s="17"/>
+    </row>
+    <row r="252" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="180">
+        <v>71</v>
+      </c>
+      <c r="B252" s="183"/>
+      <c r="C252" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D252" s="138"/>
+      <c r="E252" s="144">
+        <v>234</v>
+      </c>
+      <c r="F252" s="140"/>
+      <c r="G252" s="2" t="s">
+        <v>5269</v>
+      </c>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="181"/>
+      <c r="B253" s="184"/>
+      <c r="C253" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D253" s="139"/>
+      <c r="E253" s="123">
+        <v>235</v>
+      </c>
+      <c r="F253" s="141"/>
+      <c r="G253" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="182"/>
+      <c r="B254" s="185"/>
+      <c r="C254" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D254" s="214" t="s">
+        <v>5271</v>
+      </c>
+      <c r="E254" s="123">
+        <v>236</v>
+      </c>
+      <c r="F254" s="216"/>
+      <c r="G254" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="180">
+        <v>72</v>
+      </c>
+      <c r="B255" s="183"/>
+      <c r="C255" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D255" s="138"/>
+      <c r="E255" s="123">
+        <v>237</v>
+      </c>
+      <c r="F255" s="140"/>
+      <c r="G255" s="2" t="s">
+        <v>5272</v>
+      </c>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="181"/>
+      <c r="B256" s="184"/>
+      <c r="C256" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D256" s="139"/>
+      <c r="E256" s="123">
+        <v>238</v>
+      </c>
+      <c r="F256" s="141"/>
+      <c r="G256" s="147" t="s">
+        <v>5273</v>
+      </c>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="181"/>
+      <c r="B257" s="184"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="220"/>
+      <c r="E257" s="222">
+        <v>239</v>
+      </c>
+      <c r="F257" s="221"/>
+      <c r="G257" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H257" s="17"/>
+    </row>
+    <row r="258" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="182"/>
+      <c r="B258" s="185"/>
+      <c r="C258" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D258" s="214" t="s">
+        <v>5275</v>
+      </c>
+      <c r="E258" s="123">
+        <v>240</v>
+      </c>
+      <c r="F258" s="216"/>
+      <c r="G258" s="5" t="s">
+        <v>5274</v>
+      </c>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="180">
+        <v>73</v>
+      </c>
+      <c r="B259" s="183"/>
+      <c r="C259" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D259" s="138"/>
+      <c r="E259" s="123">
+        <v>241</v>
+      </c>
+      <c r="F259" s="140"/>
+      <c r="G259" s="200" t="s">
+        <v>5277</v>
+      </c>
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="181"/>
+      <c r="B260" s="184"/>
+      <c r="C260" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D260" s="139"/>
+      <c r="E260" s="222">
+        <v>242</v>
+      </c>
+      <c r="F260" s="141"/>
+      <c r="G260" s="147" t="s">
+        <v>5278</v>
+      </c>
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="181"/>
+      <c r="B261" s="184"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="220"/>
+      <c r="E261" s="123">
+        <v>243</v>
+      </c>
+      <c r="F261" s="221"/>
+      <c r="G261" s="16" t="s">
+        <v>5280</v>
+      </c>
+      <c r="H261" s="17"/>
+    </row>
+    <row r="262" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="182"/>
+      <c r="B262" s="185"/>
+      <c r="C262" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D262" s="214" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E262" s="123">
+        <v>244</v>
+      </c>
+      <c r="F262" s="216"/>
+      <c r="G262" s="5" t="s">
+        <v>5279</v>
+      </c>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="180">
+        <v>74</v>
+      </c>
+      <c r="B263" s="183"/>
+      <c r="C263" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D263" s="138"/>
+      <c r="E263" s="215">
+        <v>245</v>
+      </c>
+      <c r="F263" s="140"/>
+      <c r="G263" s="2" t="s">
+        <v>5281</v>
+      </c>
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="181"/>
+      <c r="B264" s="184"/>
+      <c r="C264" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D264" s="139"/>
+      <c r="E264" s="123">
+        <v>246</v>
+      </c>
+      <c r="F264" s="141"/>
+      <c r="G264" s="224">
+        <v>0.1875</v>
+      </c>
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="181"/>
+      <c r="B265" s="184"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="220"/>
+      <c r="E265" s="123">
+        <v>247</v>
+      </c>
+      <c r="F265" s="221"/>
+      <c r="G265" s="16" t="s">
+        <v>5282</v>
+      </c>
+      <c r="H265" s="17"/>
+    </row>
+    <row r="266" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="182"/>
+      <c r="B266" s="185"/>
+      <c r="C266" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D266" s="214" t="s">
+        <v>5283</v>
+      </c>
+      <c r="E266" s="123">
+        <v>248</v>
+      </c>
+      <c r="F266" s="216"/>
+      <c r="G266" s="5" t="s">
+        <v>5283</v>
+      </c>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="180">
+        <v>75</v>
+      </c>
+      <c r="B267" s="183"/>
+      <c r="C267" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D267" s="138"/>
+      <c r="E267" s="144">
+        <v>249</v>
+      </c>
+      <c r="F267" s="140"/>
+      <c r="G267" s="2" t="s">
+        <v>5285</v>
+      </c>
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="181"/>
+      <c r="B268" s="184"/>
+      <c r="C268" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D268" s="139"/>
+      <c r="E268" s="123">
+        <v>250</v>
+      </c>
+      <c r="F268" s="141"/>
+      <c r="G268" s="1" t="s">
+        <v>5286</v>
+      </c>
+      <c r="H268" s="4"/>
+    </row>
+    <row r="269" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="182"/>
+      <c r="B269" s="185"/>
+      <c r="C269" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D269" s="214" t="s">
+        <v>5284</v>
+      </c>
+      <c r="E269" s="123">
+        <v>251</v>
+      </c>
+      <c r="F269" s="216"/>
+      <c r="G269" s="5" t="s">
+        <v>5287</v>
+      </c>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="180">
+        <v>76</v>
+      </c>
+      <c r="B270" s="183"/>
+      <c r="C270" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D270" s="138"/>
+      <c r="E270" s="123">
+        <v>252</v>
+      </c>
+      <c r="F270" s="140"/>
+      <c r="G270" s="2" t="s">
+        <v>5288</v>
+      </c>
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="181"/>
+      <c r="B271" s="184"/>
+      <c r="C271" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D271" s="139"/>
+      <c r="E271" s="123">
+        <v>253</v>
+      </c>
+      <c r="F271" s="141"/>
+      <c r="G271" s="1" t="s">
+        <v>5289</v>
+      </c>
+      <c r="H271" s="4"/>
+    </row>
+    <row r="272" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="181"/>
+      <c r="B272" s="184"/>
+      <c r="C272" s="15"/>
+      <c r="D272" s="220"/>
+      <c r="E272" s="222">
+        <v>254</v>
+      </c>
+      <c r="F272" s="221"/>
+      <c r="G272" s="16" t="s">
+        <v>5290</v>
+      </c>
+      <c r="H272" s="17"/>
+    </row>
+    <row r="273" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="182"/>
+      <c r="B273" s="185"/>
+      <c r="C273" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D273" s="214" t="s">
+        <v>5292</v>
+      </c>
+      <c r="E273" s="123">
+        <v>255</v>
+      </c>
+      <c r="F273" s="221"/>
+      <c r="G273" s="16" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H273" s="17"/>
+    </row>
+    <row r="274" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="180">
+        <v>77</v>
+      </c>
+      <c r="B274" s="183"/>
+      <c r="C274" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D274" s="138"/>
+      <c r="E274" s="123">
+        <v>256</v>
+      </c>
+      <c r="F274" s="140"/>
+      <c r="G274" s="2" t="s">
+        <v>5293</v>
+      </c>
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="181"/>
+      <c r="B275" s="184"/>
+      <c r="C275" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D275" s="139"/>
+      <c r="E275" s="123">
+        <v>257</v>
+      </c>
+      <c r="F275" s="216"/>
+      <c r="G275" s="5" t="s">
+        <v>5294</v>
+      </c>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="182"/>
+      <c r="B276" s="185"/>
+      <c r="C276" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D276" s="131" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E276" s="175"/>
+      <c r="F276" s="176"/>
+      <c r="G276" s="176"/>
+      <c r="H276" s="177"/>
+    </row>
+    <row r="277" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="180">
+        <v>78</v>
+      </c>
+      <c r="B277" s="183"/>
+      <c r="C277" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D277" s="138"/>
+      <c r="E277" s="219">
+        <v>258</v>
+      </c>
+      <c r="F277" s="140"/>
+      <c r="G277" s="2" t="s">
+        <v>5297</v>
+      </c>
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="181"/>
+      <c r="B278" s="184"/>
+      <c r="C278" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D278" s="139"/>
+      <c r="E278" s="142">
+        <v>259</v>
+      </c>
+      <c r="F278" s="141"/>
+      <c r="G278" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H278" s="4"/>
+    </row>
+    <row r="279" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="181"/>
+      <c r="B279" s="184"/>
+      <c r="C279" s="15"/>
+      <c r="D279" s="220"/>
+      <c r="E279" s="219">
+        <v>260</v>
+      </c>
+      <c r="F279" s="221"/>
+      <c r="G279" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="H279" s="17"/>
+    </row>
+    <row r="280" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="182"/>
+      <c r="B280" s="185"/>
+      <c r="C280" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D280" s="214" t="s">
+        <v>5296</v>
+      </c>
+      <c r="E280" s="142">
+        <v>261</v>
+      </c>
+      <c r="F280" s="221"/>
+      <c r="G280" s="16" t="s">
+        <v>5298</v>
+      </c>
+      <c r="H280" s="17"/>
+    </row>
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="180">
+        <v>79</v>
+      </c>
+      <c r="B281" s="183"/>
+      <c r="C281" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D281" s="138"/>
+      <c r="E281" s="219">
+        <v>262</v>
+      </c>
+      <c r="F281" s="140"/>
+      <c r="G281" s="2" t="s">
+        <v>5299</v>
+      </c>
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="181"/>
+      <c r="B282" s="184"/>
+      <c r="C282" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D282" s="139"/>
+      <c r="E282" s="143">
+        <v>263</v>
+      </c>
+      <c r="F282" s="216"/>
+      <c r="G282" s="5" t="s">
+        <v>5274</v>
+      </c>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:8" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="182"/>
+      <c r="B283" s="185"/>
+      <c r="C283" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D283" s="131" t="s">
+        <v>5300</v>
+      </c>
+      <c r="E283" s="175"/>
+      <c r="F283" s="176"/>
+      <c r="G283" s="176"/>
+      <c r="H283" s="177"/>
+    </row>
+    <row r="284" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="180">
+        <v>80</v>
+      </c>
+      <c r="B284" s="183"/>
+      <c r="C284" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D284" s="138"/>
+      <c r="E284" s="219">
+        <v>264</v>
+      </c>
+      <c r="F284" s="140"/>
+      <c r="G284" s="2" t="s">
+        <v>5301</v>
+      </c>
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="181"/>
+      <c r="B285" s="184"/>
+      <c r="C285" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D285" s="139"/>
+      <c r="E285" s="142">
+        <v>265</v>
+      </c>
+      <c r="F285" s="141"/>
+      <c r="G285" s="1" t="s">
+        <v>5302</v>
+      </c>
+      <c r="H285" s="4"/>
+    </row>
+    <row r="286" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="181"/>
+      <c r="B286" s="184"/>
+      <c r="C286" s="15"/>
+      <c r="D286" s="220"/>
+      <c r="E286" s="219">
+        <v>266</v>
+      </c>
+      <c r="F286" s="221"/>
+      <c r="G286" s="16" t="s">
+        <v>5303</v>
+      </c>
+      <c r="H286" s="17"/>
+    </row>
+    <row r="287" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="182"/>
+      <c r="B287" s="185"/>
+      <c r="C287" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D287" s="214" t="s">
+        <v>5305</v>
+      </c>
+      <c r="E287" s="143">
+        <v>267</v>
+      </c>
+      <c r="F287" s="216"/>
+      <c r="G287" s="5" t="s">
+        <v>5304</v>
+      </c>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="180">
+        <v>81</v>
+      </c>
+      <c r="B288" s="183"/>
+      <c r="C288" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D288" s="138"/>
+      <c r="E288" s="219">
+        <v>268</v>
+      </c>
+      <c r="F288" s="140"/>
+      <c r="G288" s="2" t="s">
+        <v>5306</v>
+      </c>
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="181"/>
+      <c r="B289" s="184"/>
+      <c r="C289" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D289" s="139"/>
+      <c r="E289" s="142">
+        <v>269</v>
+      </c>
+      <c r="F289" s="141"/>
+      <c r="G289" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H289" s="4"/>
+    </row>
+    <row r="290" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="182"/>
+      <c r="B290" s="185"/>
+      <c r="C290" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D290" s="214" t="s">
+        <v>5306</v>
+      </c>
+      <c r="E290" s="219">
+        <v>270</v>
+      </c>
+      <c r="F290" s="216"/>
+      <c r="G290" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="180">
+        <v>82</v>
+      </c>
+      <c r="B291" s="183"/>
+      <c r="C291" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D291" s="138"/>
+      <c r="E291" s="143">
+        <v>271</v>
+      </c>
+      <c r="F291" s="140"/>
+      <c r="G291" s="200" t="s">
+        <v>5310</v>
+      </c>
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="181"/>
+      <c r="B292" s="184"/>
+      <c r="C292" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D292" s="139"/>
+      <c r="E292" s="219">
+        <v>272</v>
+      </c>
+      <c r="F292" s="216"/>
+      <c r="G292" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="182"/>
+      <c r="B293" s="185"/>
+      <c r="C293" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D293" s="131" t="s">
+        <v>5307</v>
+      </c>
+      <c r="E293" s="175"/>
+      <c r="F293" s="176"/>
+      <c r="G293" s="176"/>
+      <c r="H293" s="177"/>
+    </row>
+    <row r="294" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="180">
+        <v>83</v>
+      </c>
+      <c r="B294" s="183"/>
+      <c r="C294" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D294" s="138"/>
+      <c r="E294" s="123">
+        <v>273</v>
+      </c>
+      <c r="F294" s="140"/>
+      <c r="G294" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H294" s="3"/>
+    </row>
+    <row r="295" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="181"/>
+      <c r="B295" s="184"/>
+      <c r="C295" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D295" s="139"/>
+      <c r="E295" s="123">
+        <v>274</v>
+      </c>
+      <c r="F295" s="216"/>
+      <c r="G295" s="5" t="s">
+        <v>5245</v>
+      </c>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="182"/>
+      <c r="B296" s="185"/>
+      <c r="C296" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D296" s="131" t="s">
+        <v>5308</v>
+      </c>
+      <c r="E296" s="175"/>
+      <c r="F296" s="176"/>
+      <c r="G296" s="176"/>
+      <c r="H296" s="177"/>
+    </row>
+    <row r="297" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="180">
+        <v>84</v>
+      </c>
+      <c r="B297" s="183"/>
+      <c r="C297" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D297" s="138"/>
+      <c r="E297" s="144">
+        <v>275</v>
+      </c>
+      <c r="F297" s="140"/>
+      <c r="G297" s="200" t="s">
+        <v>5311</v>
+      </c>
+      <c r="H297" s="3"/>
+    </row>
+    <row r="298" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="181"/>
+      <c r="B298" s="184"/>
+      <c r="C298" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D298" s="139"/>
+      <c r="E298" s="123">
+        <v>276</v>
+      </c>
+      <c r="F298" s="141"/>
+      <c r="G298" s="1" t="s">
+        <v>5312</v>
+      </c>
+      <c r="H298" s="4"/>
+    </row>
+    <row r="299" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="182"/>
+      <c r="B299" s="185"/>
+      <c r="C299" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D299" s="214" t="s">
+        <v>5309</v>
+      </c>
+      <c r="E299" s="144">
+        <v>277</v>
+      </c>
+      <c r="F299" s="216"/>
+      <c r="G299" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="180">
+        <v>85</v>
+      </c>
+      <c r="B300" s="183"/>
+      <c r="C300" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D300" s="138"/>
+      <c r="E300" s="123">
+        <v>278</v>
+      </c>
+      <c r="F300" s="140"/>
+      <c r="G300" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="181"/>
+      <c r="B301" s="184"/>
+      <c r="C301" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D301" s="139"/>
+      <c r="E301" s="144">
+        <v>279</v>
+      </c>
+      <c r="F301" s="141"/>
+      <c r="G301" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="H301" s="4"/>
+    </row>
+    <row r="302" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="182"/>
+      <c r="B302" s="185"/>
+      <c r="C302" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D302" s="214" t="s">
+        <v>466</v>
+      </c>
+      <c r="E302" s="123">
+        <v>280</v>
+      </c>
+      <c r="F302" s="216"/>
+      <c r="G302" s="5" t="s">
+        <v>5313</v>
+      </c>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="180">
+        <v>86</v>
+      </c>
+      <c r="B303" s="183"/>
+      <c r="C303" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D303" s="138"/>
+      <c r="E303" s="144">
+        <v>281</v>
+      </c>
+      <c r="F303" s="140"/>
+      <c r="G303" s="2" t="s">
+        <v>5315</v>
+      </c>
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="181"/>
+      <c r="B304" s="184"/>
+      <c r="C304" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D304" s="139"/>
+      <c r="E304" s="123">
+        <v>282</v>
+      </c>
+      <c r="F304" s="141"/>
+      <c r="G304" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H304" s="4"/>
+    </row>
+    <row r="305" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="182"/>
+      <c r="B305" s="185"/>
+      <c r="C305" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D305" s="214" t="s">
+        <v>5314</v>
+      </c>
+      <c r="E305" s="144">
+        <v>283</v>
+      </c>
+      <c r="F305" s="216"/>
+      <c r="G305" s="5" t="s">
+        <v>5316</v>
+      </c>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="180">
+        <v>87</v>
+      </c>
+      <c r="B306" s="183"/>
+      <c r="C306" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D306" s="138"/>
+      <c r="E306" s="123">
+        <v>284</v>
+      </c>
+      <c r="F306" s="140"/>
+      <c r="G306" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="181"/>
+      <c r="B307" s="184"/>
+      <c r="C307" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D307" s="139"/>
+      <c r="E307" s="144">
+        <v>285</v>
+      </c>
+      <c r="F307" s="141"/>
+      <c r="G307" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H307" s="4"/>
+    </row>
+    <row r="308" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="182"/>
+      <c r="B308" s="185"/>
+      <c r="C308" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D308" s="214" t="s">
+        <v>589</v>
+      </c>
+      <c r="E308" s="123">
+        <v>286</v>
+      </c>
+      <c r="F308" s="216"/>
+      <c r="G308" s="5" t="s">
+        <v>5317</v>
+      </c>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="180">
+        <v>88</v>
+      </c>
+      <c r="B309" s="183"/>
+      <c r="C309" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D309" s="138"/>
+      <c r="E309" s="144">
+        <v>287</v>
+      </c>
+      <c r="F309" s="140"/>
+      <c r="G309" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="181"/>
+      <c r="B310" s="184"/>
+      <c r="C310" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D310" s="139"/>
+      <c r="E310" s="123">
+        <v>288</v>
+      </c>
+      <c r="F310" s="216"/>
+      <c r="G310" s="5" t="s">
+        <v>5318</v>
+      </c>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="182"/>
+      <c r="B311" s="185"/>
+      <c r="C311" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D311" s="131" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E311" s="175"/>
+      <c r="F311" s="176"/>
+      <c r="G311" s="176"/>
+      <c r="H311" s="177"/>
+    </row>
+    <row r="312" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="180">
+        <v>89</v>
+      </c>
+      <c r="B312" s="183"/>
+      <c r="C312" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D312" s="138"/>
+      <c r="E312" s="123">
+        <v>289</v>
+      </c>
+      <c r="F312" s="140"/>
+      <c r="G312" s="2" t="s">
+        <v>5319</v>
+      </c>
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="181"/>
+      <c r="B313" s="184"/>
+      <c r="C313" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D313" s="139"/>
+      <c r="E313" s="123">
+        <v>290</v>
+      </c>
+      <c r="F313" s="216"/>
+      <c r="G313" s="5" t="s">
+        <v>4596</v>
+      </c>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="182"/>
+      <c r="B314" s="185"/>
+      <c r="C314" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D314" s="131" t="s">
+        <v>5320</v>
+      </c>
+      <c r="E314" s="175"/>
+      <c r="F314" s="176"/>
+      <c r="G314" s="176"/>
+      <c r="H314" s="177"/>
+    </row>
+    <row r="315" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="180">
+        <v>90</v>
+      </c>
+      <c r="B315" s="183"/>
+      <c r="C315" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D315" s="138"/>
+      <c r="E315" s="123">
+        <v>291</v>
+      </c>
+      <c r="F315" s="140"/>
+      <c r="G315" s="2" t="s">
+        <v>5321</v>
+      </c>
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="181"/>
+      <c r="B316" s="184"/>
+      <c r="C316" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D316" s="139"/>
+      <c r="E316" s="123">
+        <v>292</v>
+      </c>
+      <c r="F316" s="216"/>
+      <c r="G316" s="5" t="s">
+        <v>5322</v>
+      </c>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="182"/>
+      <c r="B317" s="185"/>
+      <c r="C317" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D317" s="131" t="s">
+        <v>5321</v>
+      </c>
+      <c r="E317" s="175"/>
+      <c r="F317" s="176"/>
+      <c r="G317" s="176"/>
+      <c r="H317" s="177"/>
+    </row>
+    <row r="318" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="180">
+        <v>91</v>
+      </c>
+      <c r="B318" s="183"/>
+      <c r="C318" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D318" s="138"/>
+      <c r="E318" s="123">
+        <v>293</v>
+      </c>
+      <c r="F318" s="140"/>
+      <c r="G318" s="2" t="s">
+        <v>5323</v>
+      </c>
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="181"/>
+      <c r="B319" s="184"/>
+      <c r="C319" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D319" s="139"/>
+      <c r="E319" s="123">
+        <v>294</v>
+      </c>
+      <c r="F319" s="216"/>
+      <c r="G319" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="182"/>
+      <c r="B320" s="185"/>
+      <c r="C320" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D320" s="131" t="s">
+        <v>5254</v>
+      </c>
+      <c r="E320" s="175"/>
+      <c r="F320" s="176"/>
+      <c r="G320" s="176"/>
+      <c r="H320" s="177"/>
+    </row>
+    <row r="321" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="180">
+        <v>92</v>
+      </c>
+      <c r="B321" s="183"/>
+      <c r="C321" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D321" s="138"/>
+      <c r="E321" s="219">
+        <v>295</v>
+      </c>
+      <c r="F321" s="140"/>
+      <c r="G321" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="181"/>
+      <c r="B322" s="184"/>
+      <c r="C322" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D322" s="139"/>
+      <c r="E322" s="142">
+        <v>296</v>
+      </c>
+      <c r="F322" s="141"/>
+      <c r="G322" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H322" s="4"/>
+    </row>
+    <row r="323" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="181"/>
+      <c r="B323" s="184"/>
+      <c r="C323" s="15"/>
+      <c r="D323" s="220"/>
+      <c r="E323" s="219">
+        <v>297</v>
+      </c>
+      <c r="F323" s="221"/>
+      <c r="G323" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="H323" s="17"/>
+    </row>
+    <row r="324" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="182"/>
+      <c r="B324" s="185"/>
+      <c r="C324" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D324" s="214" t="s">
+        <v>774</v>
+      </c>
+      <c r="E324" s="154">
+        <v>298</v>
+      </c>
+      <c r="F324" s="216"/>
+      <c r="G324" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="180">
+        <v>93</v>
+      </c>
+      <c r="B325" s="183"/>
+      <c r="C325" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D325" s="138"/>
+      <c r="E325" s="219">
+        <v>299</v>
+      </c>
+      <c r="F325" s="140"/>
+      <c r="G325" s="200" t="s">
+        <v>5325</v>
+      </c>
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="181"/>
+      <c r="B326" s="184"/>
+      <c r="C326" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D326" s="139"/>
+      <c r="E326" s="142">
+        <v>300</v>
+      </c>
+      <c r="F326" s="141"/>
+      <c r="G326" s="147" t="s">
+        <v>5326</v>
+      </c>
+      <c r="H326" s="4"/>
+    </row>
+    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="181"/>
+      <c r="B327" s="184"/>
+      <c r="C327" s="178"/>
+      <c r="D327" s="186"/>
+      <c r="E327" s="219">
+        <v>301</v>
+      </c>
+      <c r="F327" s="221"/>
+      <c r="G327" s="16" t="s">
+        <v>5327</v>
+      </c>
+      <c r="H327" s="17"/>
+    </row>
+    <row r="328" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="181"/>
+      <c r="B328" s="184"/>
+      <c r="C328" s="205" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D328" s="156" t="s">
+        <v>5324</v>
+      </c>
+      <c r="E328" s="154">
+        <v>302</v>
+      </c>
+      <c r="F328" s="221"/>
+      <c r="G328" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="H328" s="17"/>
+    </row>
+    <row r="329" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="182"/>
+      <c r="B329" s="185"/>
+      <c r="C329" s="189"/>
+      <c r="D329" s="190"/>
+      <c r="E329" s="219">
+        <v>303</v>
+      </c>
+      <c r="F329" s="216"/>
+      <c r="G329" s="5" t="s">
+        <v>5328</v>
+      </c>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="180">
+        <v>94</v>
+      </c>
+      <c r="B330" s="183"/>
+      <c r="C330" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D330" s="138"/>
+      <c r="E330" s="142">
+        <v>304</v>
+      </c>
+      <c r="F330" s="140"/>
+      <c r="G330" s="200" t="s">
+        <v>5329</v>
+      </c>
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="181"/>
+      <c r="B331" s="184"/>
+      <c r="C331" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D331" s="139"/>
+      <c r="E331" s="219">
+        <v>305</v>
+      </c>
+      <c r="F331" s="141"/>
+      <c r="G331" s="147" t="s">
+        <v>5329</v>
+      </c>
+      <c r="H331" s="4"/>
+    </row>
+    <row r="332" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="181"/>
+      <c r="B332" s="184"/>
+      <c r="C332" s="178"/>
+      <c r="D332" s="186"/>
+      <c r="E332" s="154">
+        <v>306</v>
+      </c>
+      <c r="F332" s="221"/>
+      <c r="G332" s="151" t="s">
+        <v>5330</v>
+      </c>
+      <c r="H332" s="17"/>
+    </row>
+    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="181"/>
+      <c r="B333" s="184"/>
+      <c r="C333" s="205" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D333" s="156" t="s">
+        <v>5333</v>
+      </c>
+      <c r="E333" s="219">
+        <v>307</v>
+      </c>
+      <c r="F333" s="221"/>
+      <c r="G333" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="H333" s="17"/>
+    </row>
+    <row r="334" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="182"/>
+      <c r="B334" s="185"/>
+      <c r="C334" s="189"/>
+      <c r="D334" s="190"/>
+      <c r="E334" s="142">
+        <v>308</v>
+      </c>
+      <c r="F334" s="216"/>
+      <c r="G334" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="180">
+        <v>95</v>
+      </c>
+      <c r="B335" s="183"/>
+      <c r="C335" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D335" s="138"/>
+      <c r="E335" s="219">
+        <v>309</v>
+      </c>
+      <c r="F335" s="140"/>
+      <c r="G335" s="200" t="s">
+        <v>5331</v>
+      </c>
+      <c r="H335" s="3"/>
+    </row>
+    <row r="336" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="181"/>
+      <c r="B336" s="184"/>
+      <c r="C336" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D336" s="139"/>
+      <c r="E336" s="143">
+        <v>310</v>
+      </c>
+      <c r="F336" s="216"/>
+      <c r="G336" s="199" t="s">
+        <v>5332</v>
+      </c>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="182"/>
+      <c r="B337" s="185"/>
+      <c r="C337" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D337" s="131" t="s">
+        <v>5334</v>
+      </c>
+      <c r="E337" s="175"/>
+      <c r="F337" s="176"/>
+      <c r="G337" s="176"/>
+      <c r="H337" s="177"/>
+    </row>
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A338" s="180">
+        <v>96</v>
+      </c>
+      <c r="B338" s="183"/>
+      <c r="C338" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D338" s="138"/>
+      <c r="E338" s="219">
+        <v>311</v>
+      </c>
+      <c r="F338" s="140"/>
+      <c r="G338" s="200" t="s">
+        <v>5335</v>
+      </c>
+      <c r="H338" s="3"/>
+    </row>
+    <row r="339" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="181"/>
+      <c r="B339" s="184"/>
+      <c r="C339" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D339" s="139"/>
+      <c r="E339" s="142">
+        <v>312</v>
+      </c>
+      <c r="F339" s="141"/>
+      <c r="G339" s="147" t="s">
+        <v>5336</v>
+      </c>
+      <c r="H339" s="4"/>
+    </row>
+    <row r="340" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="181"/>
+      <c r="B340" s="184"/>
+      <c r="C340" s="178"/>
+      <c r="D340" s="186"/>
+      <c r="E340" s="219">
+        <v>313</v>
+      </c>
+      <c r="F340" s="221"/>
+      <c r="G340" s="16" t="s">
+        <v>5130</v>
+      </c>
+      <c r="H340" s="17"/>
+    </row>
+    <row r="341" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="181"/>
+      <c r="B341" s="184"/>
+      <c r="C341" s="205" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D341" s="156" t="s">
+        <v>5337</v>
+      </c>
+      <c r="E341" s="142">
+        <v>314</v>
+      </c>
+      <c r="F341" s="221"/>
+      <c r="G341" s="16" t="s">
+        <v>5312</v>
+      </c>
+      <c r="H341" s="17"/>
+    </row>
+    <row r="342" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="182"/>
+      <c r="B342" s="185"/>
+      <c r="C342" s="189"/>
+      <c r="D342" s="190"/>
+      <c r="E342" s="219">
+        <v>315</v>
+      </c>
+      <c r="F342" s="216"/>
+      <c r="G342" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="H342" s="6"/>
+    </row>
+    <row r="343" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="180">
+        <v>97</v>
+      </c>
+      <c r="B343" s="183"/>
+      <c r="C343" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D343" s="138"/>
+      <c r="E343" s="142">
+        <v>316</v>
+      </c>
+      <c r="F343" s="140"/>
+      <c r="G343" s="200" t="s">
+        <v>5338</v>
+      </c>
+      <c r="H343" s="3"/>
+    </row>
+    <row r="344" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="181"/>
+      <c r="B344" s="184"/>
+      <c r="C344" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D344" s="139"/>
+      <c r="E344" s="219">
+        <v>317</v>
+      </c>
+      <c r="F344" s="141"/>
+      <c r="G344" s="1" t="s">
+        <v>5339</v>
+      </c>
+      <c r="H344" s="4"/>
+    </row>
+    <row r="345" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="181"/>
+      <c r="B345" s="184"/>
+      <c r="C345" s="15"/>
+      <c r="D345" s="220"/>
+      <c r="E345" s="142">
+        <v>318</v>
+      </c>
+      <c r="F345" s="221"/>
+      <c r="G345" s="151" t="s">
+        <v>5340</v>
+      </c>
+      <c r="H345" s="17"/>
+    </row>
+    <row r="346" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="182"/>
+      <c r="B346" s="185"/>
+      <c r="C346" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D346" s="214" t="s">
+        <v>5342</v>
+      </c>
+      <c r="E346" s="219">
+        <v>319</v>
+      </c>
+      <c r="F346" s="216"/>
+      <c r="G346" s="5" t="s">
+        <v>5341</v>
+      </c>
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="180">
+        <v>98</v>
+      </c>
+      <c r="B347" s="183"/>
+      <c r="C347" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D347" s="138"/>
+      <c r="E347" s="142">
+        <v>320</v>
+      </c>
+      <c r="F347" s="140"/>
+      <c r="G347" s="200" t="s">
+        <v>5343</v>
+      </c>
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="181"/>
+      <c r="B348" s="184"/>
+      <c r="C348" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D348" s="139"/>
+      <c r="E348" s="219">
+        <v>321</v>
+      </c>
+      <c r="F348" s="141"/>
+      <c r="G348" s="147" t="s">
+        <v>5344</v>
+      </c>
+      <c r="H348" s="4"/>
+    </row>
+    <row r="349" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="181"/>
+      <c r="B349" s="184"/>
+      <c r="C349" s="178"/>
+      <c r="D349" s="186"/>
+      <c r="E349" s="142">
+        <v>322</v>
+      </c>
+      <c r="F349" s="221"/>
+      <c r="G349" s="16" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H349" s="17"/>
+    </row>
+    <row r="350" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="181"/>
+      <c r="B350" s="184"/>
+      <c r="C350" s="205" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D350" s="156" t="s">
+        <v>5348</v>
+      </c>
+      <c r="E350" s="219">
+        <v>323</v>
+      </c>
+      <c r="F350" s="221"/>
+      <c r="G350" s="151" t="s">
+        <v>5346</v>
+      </c>
+      <c r="H350" s="17"/>
+    </row>
+    <row r="351" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="182"/>
+      <c r="B351" s="185"/>
+      <c r="C351" s="189"/>
+      <c r="D351" s="190"/>
+      <c r="E351" s="142">
+        <v>324</v>
+      </c>
+      <c r="F351" s="216"/>
+      <c r="G351" s="5" t="s">
+        <v>5347</v>
+      </c>
+      <c r="H351" s="6"/>
+    </row>
+    <row r="352" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A352" s="180">
+        <v>99</v>
+      </c>
+      <c r="B352" s="183"/>
+      <c r="C352" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D352" s="138"/>
+      <c r="E352" s="219">
+        <v>325</v>
+      </c>
+      <c r="F352" s="140"/>
+      <c r="G352" s="200" t="s">
+        <v>5349</v>
+      </c>
+      <c r="H352" s="3"/>
+    </row>
+    <row r="353" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="181"/>
+      <c r="B353" s="184"/>
+      <c r="C353" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D353" s="139"/>
+      <c r="E353" s="142">
+        <v>326</v>
+      </c>
+      <c r="F353" s="141"/>
+      <c r="G353" s="147" t="s">
+        <v>5350</v>
+      </c>
+      <c r="H353" s="4"/>
+    </row>
+    <row r="354" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="181"/>
+      <c r="B354" s="184"/>
+      <c r="C354" s="178"/>
+      <c r="D354" s="186"/>
+      <c r="E354" s="219">
+        <v>327</v>
+      </c>
+      <c r="F354" s="221"/>
+      <c r="G354" s="151" t="s">
+        <v>5351</v>
+      </c>
+      <c r="H354" s="17"/>
+    </row>
+    <row r="355" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="181"/>
+      <c r="B355" s="184"/>
+      <c r="C355" s="205" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D355" s="156" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E355" s="142">
+        <v>328</v>
+      </c>
+      <c r="F355" s="221"/>
+      <c r="G355" s="151" t="s">
+        <v>5352</v>
+      </c>
+      <c r="H355" s="17"/>
+    </row>
+    <row r="356" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="181"/>
+      <c r="B356" s="184"/>
+      <c r="C356" s="187"/>
+      <c r="D356" s="188"/>
+      <c r="E356" s="219">
+        <v>329</v>
+      </c>
+      <c r="F356" s="221"/>
+      <c r="G356" s="16" t="s">
+        <v>5353</v>
+      </c>
+      <c r="H356" s="17"/>
+    </row>
+    <row r="357" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="182"/>
+      <c r="B357" s="185"/>
+      <c r="C357" s="175"/>
+      <c r="D357" s="176"/>
+      <c r="E357" s="154">
+        <v>330</v>
+      </c>
+      <c r="F357" s="216"/>
+      <c r="G357" s="199" t="s">
+        <v>5351</v>
+      </c>
+      <c r="H357" s="6"/>
+    </row>
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="180">
+        <v>100</v>
+      </c>
+      <c r="B358" s="183"/>
+      <c r="C358" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D358" s="138"/>
+      <c r="E358" s="219">
+        <v>331</v>
+      </c>
+      <c r="F358" s="140"/>
+      <c r="G358" s="200" t="s">
+        <v>5354</v>
+      </c>
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="181"/>
+      <c r="B359" s="184"/>
+      <c r="C359" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D359" s="139"/>
+      <c r="E359" s="142">
+        <v>332</v>
+      </c>
+      <c r="F359" s="141"/>
+      <c r="G359" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="H359" s="4"/>
+    </row>
+    <row r="360" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="181"/>
+      <c r="B360" s="184"/>
+      <c r="C360" s="15"/>
+      <c r="D360" s="220"/>
+      <c r="E360" s="219">
+        <v>333</v>
+      </c>
+      <c r="F360" s="221"/>
+      <c r="G360" s="16" t="s">
+        <v>5356</v>
+      </c>
+      <c r="H360" s="17"/>
+    </row>
+    <row r="361" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="182"/>
+      <c r="B361" s="185"/>
+      <c r="C361" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D361" s="156" t="s">
+        <v>5357</v>
+      </c>
+      <c r="E361" s="154">
+        <v>334</v>
+      </c>
+      <c r="F361" s="216"/>
+      <c r="G361" s="5" t="s">
+        <v>5366</v>
+      </c>
+      <c r="H361" s="6"/>
+    </row>
+    <row r="362" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="180">
+        <v>101</v>
+      </c>
+      <c r="B362" s="183"/>
+      <c r="C362" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D362" s="138"/>
+      <c r="E362" s="142">
+        <v>335</v>
+      </c>
+      <c r="F362" s="140"/>
+      <c r="G362" s="200" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="181"/>
+      <c r="B363" s="184"/>
+      <c r="C363" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D363" s="139"/>
+      <c r="E363" s="219">
+        <v>336</v>
+      </c>
+      <c r="F363" s="141"/>
+      <c r="G363" s="147" t="s">
+        <v>5359</v>
+      </c>
+      <c r="H363" s="4"/>
+    </row>
+    <row r="364" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="181"/>
+      <c r="B364" s="184"/>
+      <c r="C364" s="178"/>
+      <c r="D364" s="186"/>
+      <c r="E364" s="154">
+        <v>337</v>
+      </c>
+      <c r="F364" s="221"/>
+      <c r="G364" s="151" t="s">
+        <v>5360</v>
+      </c>
+      <c r="H364" s="17"/>
+    </row>
+    <row r="365" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="181"/>
+      <c r="B365" s="184"/>
+      <c r="C365" s="205" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D365" s="156" t="s">
+        <v>5368</v>
+      </c>
+      <c r="E365" s="142">
+        <v>338</v>
+      </c>
+      <c r="F365" s="221"/>
+      <c r="G365" s="218" t="s">
+        <v>5361</v>
+      </c>
+      <c r="H365" s="17"/>
+    </row>
+    <row r="366" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="182"/>
+      <c r="B366" s="185"/>
+      <c r="C366" s="189"/>
+      <c r="D366" s="190"/>
+      <c r="E366" s="219">
+        <v>339</v>
+      </c>
+      <c r="F366" s="216"/>
+      <c r="G366" s="199" t="s">
+        <v>5362</v>
+      </c>
+      <c r="H366" s="6"/>
+    </row>
+    <row r="367" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A367" s="180">
+        <v>102</v>
+      </c>
+      <c r="B367" s="183"/>
+      <c r="C367" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D367" s="138"/>
+      <c r="E367" s="154">
+        <v>340</v>
+      </c>
+      <c r="F367" s="140"/>
+      <c r="G367" s="200" t="s">
+        <v>5363</v>
+      </c>
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="181"/>
+      <c r="B368" s="184"/>
+      <c r="C368" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D368" s="139"/>
+      <c r="E368" s="142">
+        <v>341</v>
+      </c>
+      <c r="F368" s="141"/>
+      <c r="G368" s="147" t="s">
+        <v>5364</v>
+      </c>
+      <c r="H368" s="4"/>
+    </row>
+    <row r="369" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="182"/>
+      <c r="B369" s="185"/>
+      <c r="C369" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D369" s="214" t="s">
+        <v>5369</v>
+      </c>
+      <c r="E369" s="219">
+        <v>342</v>
+      </c>
+      <c r="F369" s="216"/>
+      <c r="G369" s="5" t="s">
+        <v>5365</v>
+      </c>
+      <c r="H369" s="6"/>
+    </row>
+    <row r="370" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="180">
+        <v>103</v>
+      </c>
+      <c r="B370" s="183"/>
+      <c r="C370" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D370" s="138"/>
+      <c r="E370" s="154">
+        <v>343</v>
+      </c>
+      <c r="F370" s="140"/>
+      <c r="G370" s="200" t="s">
+        <v>5371</v>
+      </c>
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="181"/>
+      <c r="B371" s="184"/>
+      <c r="C371" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D371" s="139"/>
+      <c r="E371" s="142">
+        <v>344</v>
+      </c>
+      <c r="F371" s="141"/>
+      <c r="G371" s="1" t="s">
+        <v>5372</v>
+      </c>
+      <c r="H371" s="4"/>
+    </row>
+    <row r="372" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="182"/>
+      <c r="B372" s="185"/>
+      <c r="C372" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D372" s="214" t="s">
+        <v>5370</v>
+      </c>
+      <c r="E372" s="215">
+        <v>345</v>
+      </c>
+      <c r="F372" s="216"/>
+      <c r="G372" s="5" t="s">
+        <v>5373</v>
+      </c>
+      <c r="H372" s="6"/>
+    </row>
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="180">
+        <v>104</v>
+      </c>
+      <c r="B373" s="183"/>
+      <c r="C373" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D373" s="138"/>
+      <c r="E373" s="219">
+        <v>346</v>
+      </c>
+      <c r="F373" s="140"/>
+      <c r="G373" s="200" t="s">
+        <v>5380</v>
+      </c>
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="181"/>
+      <c r="B374" s="184"/>
+      <c r="C374" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D374" s="139"/>
+      <c r="E374" s="154">
+        <v>347</v>
+      </c>
+      <c r="F374" s="141"/>
+      <c r="G374" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H374" s="4"/>
+    </row>
+    <row r="375" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="181"/>
+      <c r="B375" s="184"/>
+      <c r="C375" s="15"/>
+      <c r="D375" s="220"/>
+      <c r="E375" s="142">
+        <v>348</v>
+      </c>
+      <c r="F375" s="221"/>
+      <c r="G375" s="16" t="s">
+        <v>5381</v>
+      </c>
+      <c r="H375" s="17"/>
+    </row>
+    <row r="376" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="182"/>
+      <c r="B376" s="185"/>
+      <c r="C376" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D376" s="225" t="s">
+        <v>5374</v>
+      </c>
+      <c r="E376" s="215">
+        <v>349</v>
+      </c>
+      <c r="F376" s="216"/>
+      <c r="G376" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H376" s="6"/>
+    </row>
+    <row r="377" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="180">
+        <v>105</v>
+      </c>
+      <c r="B377" s="183"/>
+      <c r="C377" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D377" s="138"/>
+      <c r="E377" s="219">
+        <v>350</v>
+      </c>
+      <c r="F377" s="140"/>
+      <c r="G377" s="200" t="s">
+        <v>5382</v>
+      </c>
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="181"/>
+      <c r="B378" s="184"/>
+      <c r="C378" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D378" s="139"/>
+      <c r="E378" s="154">
+        <v>351</v>
+      </c>
+      <c r="F378" s="141"/>
+      <c r="G378" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="H378" s="4"/>
+    </row>
+    <row r="379" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="181"/>
+      <c r="B379" s="184"/>
+      <c r="C379" s="15"/>
+      <c r="D379" s="220"/>
+      <c r="E379" s="142">
+        <v>352</v>
+      </c>
+      <c r="F379" s="221"/>
+      <c r="G379" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H379" s="17"/>
+    </row>
+    <row r="380" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="182"/>
+      <c r="B380" s="185"/>
+      <c r="C380" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D380" s="225" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E380" s="215">
+        <v>353</v>
+      </c>
+      <c r="F380" s="216"/>
+      <c r="G380" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H380" s="6"/>
+    </row>
+    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="180">
+        <v>106</v>
+      </c>
+      <c r="B381" s="183"/>
+      <c r="C381" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D381" s="138"/>
+      <c r="E381" s="219">
+        <v>354</v>
+      </c>
+      <c r="F381" s="140"/>
+      <c r="G381" s="200" t="s">
+        <v>5384</v>
+      </c>
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="181"/>
+      <c r="B382" s="184"/>
+      <c r="C382" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D382" s="139"/>
+      <c r="E382" s="143">
+        <v>355</v>
+      </c>
+      <c r="F382" s="216"/>
+      <c r="G382" s="199" t="s">
+        <v>5385</v>
+      </c>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="182"/>
+      <c r="B383" s="185"/>
+      <c r="C383" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D383" s="131" t="s">
+        <v>5375</v>
+      </c>
+      <c r="E383" s="206"/>
+      <c r="F383" s="176"/>
+      <c r="G383" s="176"/>
+      <c r="H383" s="177"/>
+    </row>
+    <row r="384" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="180">
+        <v>107</v>
+      </c>
+      <c r="B384" s="183"/>
+      <c r="C384" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D384" s="138"/>
+      <c r="E384" s="219">
+        <v>356</v>
+      </c>
+      <c r="F384" s="140"/>
+      <c r="G384" s="200" t="s">
+        <v>5386</v>
+      </c>
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="181"/>
+      <c r="B385" s="184"/>
+      <c r="C385" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D385" s="139"/>
+      <c r="E385" s="142">
+        <v>357</v>
+      </c>
+      <c r="F385" s="141"/>
+      <c r="G385" s="1" t="s">
+        <v>5387</v>
+      </c>
+      <c r="H385" s="4"/>
+    </row>
+    <row r="386" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="182"/>
+      <c r="B386" s="185"/>
+      <c r="C386" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D386" s="225" t="s">
+        <v>5376</v>
+      </c>
+      <c r="E386" s="219">
+        <v>358</v>
+      </c>
+      <c r="F386" s="216"/>
+      <c r="G386" s="5" t="s">
+        <v>5388</v>
+      </c>
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="180">
+        <v>108</v>
+      </c>
+      <c r="B387" s="183"/>
+      <c r="C387" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D387" s="138"/>
+      <c r="E387" s="142">
+        <v>359</v>
+      </c>
+      <c r="F387" s="140"/>
+      <c r="G387" s="200" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H387" s="3"/>
+    </row>
+    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="181"/>
+      <c r="B388" s="184"/>
+      <c r="C388" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D388" s="139"/>
+      <c r="E388" s="219">
+        <v>360</v>
+      </c>
+      <c r="F388" s="141"/>
+      <c r="G388" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H388" s="4"/>
+    </row>
+    <row r="389" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="181"/>
+      <c r="B389" s="184"/>
+      <c r="C389" s="15"/>
+      <c r="D389" s="220"/>
+      <c r="E389" s="142">
+        <v>361</v>
+      </c>
+      <c r="F389" s="221"/>
+      <c r="G389" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="H389" s="17"/>
+    </row>
+    <row r="390" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="182"/>
+      <c r="B390" s="185"/>
+      <c r="C390" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D390" s="214" t="s">
+        <v>5377</v>
+      </c>
+      <c r="E390" s="219">
+        <v>362</v>
+      </c>
+      <c r="F390" s="216"/>
+      <c r="G390" s="5" t="s">
+        <v>5390</v>
+      </c>
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="180">
+        <v>109</v>
+      </c>
+      <c r="B391" s="183"/>
+      <c r="C391" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D391" s="138"/>
+      <c r="E391" s="142">
+        <v>363</v>
+      </c>
+      <c r="F391" s="140"/>
+      <c r="G391" s="200" t="s">
+        <v>5391</v>
+      </c>
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A392" s="181"/>
+      <c r="B392" s="184"/>
+      <c r="C392" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D392" s="139"/>
+      <c r="E392" s="219">
+        <v>364</v>
+      </c>
+      <c r="F392" s="141"/>
+      <c r="G392" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H392" s="4"/>
+    </row>
+    <row r="393" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="182"/>
+      <c r="B393" s="185"/>
+      <c r="C393" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D393" s="214" t="s">
+        <v>5378</v>
+      </c>
+      <c r="E393" s="142">
+        <v>365</v>
+      </c>
+      <c r="F393" s="216"/>
+      <c r="G393" s="199" t="s">
+        <v>5392</v>
+      </c>
+      <c r="H393" s="6"/>
+    </row>
+    <row r="394" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="180">
+        <v>110</v>
+      </c>
+      <c r="B394" s="183"/>
+      <c r="C394" s="10" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D394" s="138"/>
+      <c r="E394" s="219">
+        <v>366</v>
+      </c>
+      <c r="F394" s="140"/>
+      <c r="G394" s="200" t="s">
+        <v>5393</v>
+      </c>
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="181"/>
+      <c r="B395" s="184"/>
+      <c r="C395" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D395" s="139"/>
+      <c r="E395" s="142">
+        <v>367</v>
+      </c>
+      <c r="F395" s="141"/>
+      <c r="G395" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="H395" s="4"/>
+    </row>
+    <row r="396" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="182"/>
+      <c r="B396" s="185"/>
+      <c r="C396" s="9" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D396" s="214" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E396" s="219">
+        <v>368</v>
+      </c>
+      <c r="F396" s="216"/>
+      <c r="G396" s="5" t="s">
+        <v>5394</v>
+      </c>
+      <c r="H396" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="285">
+    <mergeCell ref="A391:A393"/>
+    <mergeCell ref="B391:B393"/>
+    <mergeCell ref="A394:A396"/>
+    <mergeCell ref="B394:B396"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="A381:A383"/>
+    <mergeCell ref="B381:B383"/>
+    <mergeCell ref="E383:H383"/>
+    <mergeCell ref="A384:A386"/>
+    <mergeCell ref="B384:B386"/>
+    <mergeCell ref="A387:A390"/>
+    <mergeCell ref="B387:B390"/>
+    <mergeCell ref="A362:A366"/>
+    <mergeCell ref="B362:B366"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="A367:A369"/>
+    <mergeCell ref="B367:B369"/>
+    <mergeCell ref="A370:A372"/>
+    <mergeCell ref="B370:B372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="A347:A351"/>
+    <mergeCell ref="B347:B351"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="A352:A357"/>
+    <mergeCell ref="B352:B357"/>
+    <mergeCell ref="C354:D354"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="C356:D357"/>
+    <mergeCell ref="A335:A337"/>
+    <mergeCell ref="B335:B337"/>
+    <mergeCell ref="E337:H337"/>
+    <mergeCell ref="A338:A342"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="A343:A346"/>
+    <mergeCell ref="B343:B346"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="B325:B329"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C329:D329"/>
+    <mergeCell ref="A330:A334"/>
+    <mergeCell ref="B330:B334"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="B312:B314"/>
+    <mergeCell ref="E314:H314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="B315:B317"/>
+    <mergeCell ref="E317:H317"/>
+    <mergeCell ref="A318:A320"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="E320:H320"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="A303:A305"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="B309:B311"/>
+    <mergeCell ref="E311:H311"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="E293:H293"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="E296:H296"/>
+    <mergeCell ref="A297:A299"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="A274:A276"/>
+    <mergeCell ref="E276:H276"/>
+    <mergeCell ref="A277:A280"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="E283:H283"/>
+    <mergeCell ref="A284:A287"/>
+    <mergeCell ref="B284:B287"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="B274:B276"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="E228:H228"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="E239:H239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="E212:H212"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="E215:H215"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="E203:H203"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A157:A164"/>
+    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="B192:B196"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="E106:H106"/>
     <mergeCell ref="E144:H144"/>
     <mergeCell ref="C150:D150"/>
     <mergeCell ref="A148:A151"/>
@@ -62344,87 +67343,6 @@
     <mergeCell ref="A134:A137"/>
     <mergeCell ref="B134:B137"/>
     <mergeCell ref="C116:D116"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
